--- a/invsig_friction_analise_boxplot.xlsx
+++ b/invsig_friction_analise_boxplot.xlsx
@@ -181,9 +181,6 @@
     <t>Média</t>
   </si>
   <si>
-    <t>DP</t>
-  </si>
-  <si>
     <t>MinimoNO</t>
   </si>
   <si>
@@ -212,6 +209,9 @@
   </si>
   <si>
     <t>Maximo</t>
+  </si>
+  <si>
+    <t>Erro Padrão</t>
   </si>
 </sst>
 </file>
@@ -1372,78 +1372,90 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>newfriction_allerrors_experimen!$D$67:$M$67</c:f>
+                <c:f>newfriction_allerrors_experimen!$B$67:$M$67</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="10"/>
+                  <c:ptCount val="12"/>
                   <c:pt idx="0">
-                    <c:v>46114.838872098626</c:v>
+                    <c:v>34.529526797183287</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>111.28824755644078</c:v>
+                    <c:v>11.155099968343398</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>343.45161273350516</c:v>
+                    <c:v>15.733240899765239</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>6321.1832827046064</c:v>
+                    <c:v>0.39281905059547734</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>242.49172829908599</c:v>
+                    <c:v>0.80962281729448027</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>654.97821268037876</c:v>
+                    <c:v>3.9060659004702289</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>43.024588399124241</c:v>
+                    <c:v>0.60750136611563721</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>645.696082398562</c:v>
+                    <c:v>1.0959121572976103</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>302.04362579034085</c:v>
+                    <c:v>0.17813910348492223</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>124.2858822957469</c:v>
+                    <c:v>1.0852121217500739</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.75297171655025064</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.38155631155958419</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>newfriction_allerrors_experimen!$D$67:$M$67</c:f>
+                <c:f>newfriction_allerrors_experimen!$B$67:$M$67</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="10"/>
+                  <c:ptCount val="12"/>
                   <c:pt idx="0">
-                    <c:v>46114.838872098626</c:v>
+                    <c:v>34.529526797183287</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>111.28824755644078</c:v>
+                    <c:v>11.155099968343398</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>343.45161273350516</c:v>
+                    <c:v>15.733240899765239</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>6321.1832827046064</c:v>
+                    <c:v>0.39281905059547734</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>242.49172829908599</c:v>
+                    <c:v>0.80962281729448027</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>654.97821268037876</c:v>
+                    <c:v>3.9060659004702289</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>43.024588399124241</c:v>
+                    <c:v>0.60750136611563721</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>645.696082398562</c:v>
+                    <c:v>1.0959121572976103</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>302.04362579034085</c:v>
+                    <c:v>0.17813910348492223</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>124.2858822957469</c:v>
+                    <c:v>1.0852121217500739</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.75297171655025064</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.38155631155958419</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1464,38 +1476,44 @@
           </c:errBars>
           <c:cat>
             <c:numRef>
-              <c:f>newfriction_allerrors_experimen!$D$15:$M$15</c:f>
+              <c:f>newfriction_allerrors_experimen!$B$15:$M$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
@@ -1503,39 +1521,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>newfriction_allerrors_experimen!$D$66:$M$66</c:f>
+              <c:f>newfriction_allerrors_experimen!$B$66:$M$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>18638.27176552116</c:v>
+                  <c:v>321.26200299460203</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>254.03271642197996</c:v>
+                  <c:v>68.131472266775987</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>297.20623199373995</c:v>
+                  <c:v>77.549941559147996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1135.70132235756</c:v>
+                  <c:v>15.689584739236002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>270.10722752449999</c:v>
+                  <c:v>16.241191076184002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>330.09898785028008</c:v>
+                  <c:v>18.909691446478</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>236.05571260172005</c:v>
+                  <c:v>15.851980132564002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>326.95068525323995</c:v>
+                  <c:v>16.396548160161995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>299.31574331463997</c:v>
+                  <c:v>15.311345533690004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>250.66015671818002</c:v>
+                  <c:v>16.336729551662003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.443857716859998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.596003031377997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1552,11 +1576,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="204385616"/>
-        <c:axId val="204388360"/>
+        <c:axId val="193445392"/>
+        <c:axId val="193449704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="204385616"/>
+        <c:axId val="193445392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1599,7 +1623,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="204388360"/>
+        <c:crossAx val="193449704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1607,7 +1631,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="204388360"/>
+        <c:axId val="193449704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1658,7 +1682,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="204385616"/>
+        <c:crossAx val="193445392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1815,34 +1839,34 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>65.199410926249982</c:v>
+                    <c:v>2.6496259126999995</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>15.921280531749971</c:v>
+                    <c:v>0.56038041505000002</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>11.125439651499988</c:v>
+                    <c:v>0.38470518032499967</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>5.2752980139999863</c:v>
+                    <c:v>0.17966256644999845</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>8.3133873872499748</c:v>
+                    <c:v>0.28446775477499919</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>10.723286440750002</c:v>
+                    <c:v>0.36846133745000031</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>11.480594147000005</c:v>
+                    <c:v>0.39327604192500054</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>9.2906592077499965</c:v>
+                    <c:v>0.31658016827499935</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>15.576968842750006</c:v>
+                    <c:v>0.53672863780000135</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>9.0018758607500047</c:v>
+                    <c:v>0.3070541809500007</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1904,31 +1928,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>209.74434684874998</c:v>
+                  <c:v>14.482415694349999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>214.68222543749999</c:v>
+                  <c:v>14.652037999925</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>218.11551053699998</c:v>
+                  <c:v>14.768706829949998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>217.66596445624998</c:v>
+                  <c:v>14.753489044075</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>217.13914877975</c:v>
+                  <c:v>14.73564137875</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>218.824589801</c:v>
+                  <c:v>14.792720324725</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>219.98077762275</c:v>
+                  <c:v>14.831748731374999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>218.43022230075002</c:v>
+                  <c:v>14.779384761500001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>219.39458736875</c:v>
+                  <c:v>14.81197443265</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1992,31 +2016,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>11.193865156750007</c:v>
+                  <c:v>0.38157353290000096</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.7980620895000072</c:v>
+                  <c:v>0.23017524522500032</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.8366525895000336</c:v>
+                  <c:v>9.5752893250001136E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5159260822500187</c:v>
+                  <c:v>0.11869083667500036</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.7638178792500128</c:v>
+                  <c:v>0.12716312775000027</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7286288370000022</c:v>
+                  <c:v>9.1943202925000023E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.3384978822500102</c:v>
+                  <c:v>7.8626027475001692E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.9598474587499766</c:v>
+                  <c:v>0.20025970209999855</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.1483396102500194</c:v>
+                  <c:v>0.1058982680499998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2048,34 +2072,34 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>2346.4310222275003</c:v>
+                    <c:v>23.352458841924999</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>799.92766923500039</c:v>
+                    <c:v>7.3682563009000006</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>565.85190189249988</c:v>
+                    <c:v>5.5046558841499973</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>509.40760548499975</c:v>
+                    <c:v>1.9697077305999997</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>229.39579297</c:v>
+                    <c:v>4.5444546618250001</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>393.63327420000041</c:v>
+                    <c:v>5.0992595914249961</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>450.16306555749998</c:v>
+                    <c:v>4.4927486526250036</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>300.34745149500031</c:v>
+                    <c:v>3.1148831251000004</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>134.16357608750013</c:v>
+                    <c:v>1.3607574720750009</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>245.17121996499964</c:v>
+                    <c:v>2.5179413132999926</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2146,31 +2170,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>6.8133899567500009</c:v>
+                  <c:v>0.22737051030000011</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.6816001764999839</c:v>
+                  <c:v>0.12318204132500021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6408344062499793</c:v>
+                  <c:v>0.12196345969999989</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9723403667500179</c:v>
+                  <c:v>0.13296026847499931</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.2590575027500108</c:v>
+                  <c:v>0.14259531927500113</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.1435263902500026</c:v>
+                  <c:v>0.20496006980000026</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.115896454499989</c:v>
+                  <c:v>0.13736837189999918</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.8320057500000075</c:v>
+                  <c:v>0.32466157692500097</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.257299708000005</c:v>
+                  <c:v>0.10877739070000025</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2186,8 +2210,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="204389144"/>
-        <c:axId val="204386008"/>
+        <c:axId val="193450880"/>
+        <c:axId val="193450096"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -2200,8 +2224,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="204389144"/>
-        <c:axId val="204386008"/>
+        <c:axId val="193450880"/>
+        <c:axId val="193450096"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -2242,36 +2266,6 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="10"/>
-                      <c:pt idx="0">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>1592.6652230100001</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:yVal>
@@ -2316,36 +2310,6 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="10"/>
-                      <c:pt idx="0">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>1624.7850976300001</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:yVal>
@@ -2390,36 +2354,6 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="10"/>
-                      <c:pt idx="0">
-                        <c:v>6476.0057105400001</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>4157.9859653800004</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>5187.2466433099999</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>4035.0299238600001</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>2719.4936530599998</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>2868.6045933400001</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>4270.8333419800001</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>3375.1936313400001</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>3003.7551806699998</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>2786.0257615700002</c:v>
-                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:yVal>
@@ -2468,36 +2402,6 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="10"/>
-                      <c:pt idx="0">
-                        <c:v>9790.7045527999999</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>5174.4824376500001</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>25650.222835699999</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>6197.1090736100005</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>4970.8762064700004</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>3120.3595634399999</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>5765.3906780300003</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>3772.3212925500002</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>3491.0673630599999</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>3561.8383078799998</c:v>
-                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:yVal>
@@ -2546,36 +2450,6 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="10"/>
-                      <c:pt idx="0">
-                        <c:v>10752.4830172</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>5394.6254270099998</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>47754.768022999997</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>11848.107954999999</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>6205.8973691499996</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>3207.9624259699999</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>6461.2707964600004</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>14303.8778533</c:v>
-                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:yVal>
@@ -2624,36 +2498,6 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="10"/>
-                      <c:pt idx="0">
-                        <c:v>11915.172808900001</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>9046.2832930200002</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>54460.110892800003</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>29887.291904000002</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>4478.6991683099995</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>20765.835622300001</c:v>
-                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:yVal>
@@ -2702,36 +2546,6 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="10"/>
-                      <c:pt idx="0">
-                        <c:v>19862.452602900001</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>10042.086291600001</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>6054.7940587599996</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:yVal>
@@ -2780,36 +2594,6 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="10"/>
-                      <c:pt idx="0">
-                        <c:v>23742.298367300002</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>10157.413406899999</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:yVal>
@@ -2858,36 +2642,6 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="10"/>
-                      <c:pt idx="0">
-                        <c:v>59378.814465299998</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>14456.016172</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:yVal>
@@ -2938,36 +2692,6 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="10"/>
-                      <c:pt idx="0">
-                        <c:v>85903.176497199995</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>21308.430395700001</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:yVal>
@@ -2978,7 +2702,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="204389144"/>
+        <c:axId val="193450880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3077,7 +2801,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="204386008"/>
+        <c:crossAx val="193450096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3085,7 +2809,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="204386008"/>
+        <c:axId val="193450096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3192,7 +2916,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="204389144"/>
+        <c:crossAx val="193450880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4401,369 +4125,42 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="allerrors_experiment_results_ra"/>
-      <sheetName val="Outliers"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="69">
-          <cell r="D69">
-            <v>6</v>
-          </cell>
-        </row>
         <row r="83">
           <cell r="D83">
-            <v>2346.4310222275003</v>
+            <v>23.352458841924999</v>
           </cell>
           <cell r="E83">
-            <v>799.92766923500039</v>
+            <v>7.3682563009000006</v>
           </cell>
           <cell r="F83">
-            <v>565.85190189249988</v>
+            <v>5.5046558841499973</v>
           </cell>
           <cell r="G83">
-            <v>509.40760548499975</v>
+            <v>1.9697077305999997</v>
           </cell>
           <cell r="H83">
-            <v>229.39579297</v>
+            <v>4.5444546618250001</v>
           </cell>
           <cell r="I83">
-            <v>393.63327420000041</v>
+            <v>5.0992595914249961</v>
           </cell>
           <cell r="J83">
-            <v>450.16306555749998</v>
+            <v>4.4927486526250036</v>
           </cell>
           <cell r="K83">
-            <v>300.34745149500031</v>
+            <v>3.1148831251000004</v>
           </cell>
           <cell r="L83">
-            <v>134.16357608750013</v>
+            <v>1.3607574720750009</v>
           </cell>
           <cell r="M83">
-            <v>245.17121996499964</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="D85" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="E85" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="F85" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G85" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H85" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="I85" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="J85" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="K85">
-            <v>1592.6652230100001</v>
-          </cell>
-          <cell r="L85" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="M85" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="D86" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="E86" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="F86" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G86" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H86" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="I86" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="J86" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="K86">
-            <v>1624.7850976300001</v>
-          </cell>
-          <cell r="L86" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="M86" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="D88">
-            <v>6476.0057105400001</v>
-          </cell>
-          <cell r="E88">
-            <v>4157.9859653800004</v>
-          </cell>
-          <cell r="F88">
-            <v>5187.2466433099999</v>
-          </cell>
-          <cell r="G88">
-            <v>4035.0299238600001</v>
-          </cell>
-          <cell r="H88">
-            <v>2719.4936530599998</v>
-          </cell>
-          <cell r="I88">
-            <v>2868.6045933400001</v>
-          </cell>
-          <cell r="J88">
-            <v>4270.8333419800001</v>
-          </cell>
-          <cell r="K88">
-            <v>3375.1936313400001</v>
-          </cell>
-          <cell r="L88">
-            <v>3003.7551806699998</v>
-          </cell>
-          <cell r="M88">
-            <v>2786.0257615700002</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="D89">
-            <v>9790.7045527999999</v>
-          </cell>
-          <cell r="E89">
-            <v>5174.4824376500001</v>
-          </cell>
-          <cell r="F89">
-            <v>25650.222835699999</v>
-          </cell>
-          <cell r="G89">
-            <v>6197.1090736100005</v>
-          </cell>
-          <cell r="H89">
-            <v>4970.8762064700004</v>
-          </cell>
-          <cell r="I89">
-            <v>3120.3595634399999</v>
-          </cell>
-          <cell r="J89">
-            <v>5765.3906780300003</v>
-          </cell>
-          <cell r="K89">
-            <v>3772.3212925500002</v>
-          </cell>
-          <cell r="L89">
-            <v>3491.0673630599999</v>
-          </cell>
-          <cell r="M89">
-            <v>3561.8383078799998</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="D90">
-            <v>10752.4830172</v>
-          </cell>
-          <cell r="E90">
-            <v>5394.6254270099998</v>
-          </cell>
-          <cell r="F90">
-            <v>47754.768022999997</v>
-          </cell>
-          <cell r="G90">
-            <v>11848.107954999999</v>
-          </cell>
-          <cell r="H90">
-            <v>6205.8973691499996</v>
-          </cell>
-          <cell r="I90">
-            <v>3207.9624259699999</v>
-          </cell>
-          <cell r="J90">
-            <v>6461.2707964600004</v>
-          </cell>
-          <cell r="K90" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="L90" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="M90">
-            <v>14303.8778533</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="D91">
-            <v>11915.172808900001</v>
-          </cell>
-          <cell r="E91">
-            <v>9046.2832930200002</v>
-          </cell>
-          <cell r="F91">
-            <v>54460.110892800003</v>
-          </cell>
-          <cell r="G91">
-            <v>29887.291904000002</v>
-          </cell>
-          <cell r="H91" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="I91">
-            <v>4478.6991683099995</v>
-          </cell>
-          <cell r="J91" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="K91" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="L91" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="M91">
-            <v>20765.835622300001</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="D92">
-            <v>19862.452602900001</v>
-          </cell>
-          <cell r="E92">
-            <v>10042.086291600001</v>
-          </cell>
-          <cell r="F92" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G92" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H92" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="I92">
-            <v>6054.7940587599996</v>
-          </cell>
-          <cell r="J92" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="K92" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="L92" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="M92" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="D93">
-            <v>23742.298367300002</v>
-          </cell>
-          <cell r="E93">
-            <v>10157.413406899999</v>
-          </cell>
-          <cell r="F93" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G93" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H93" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="I93" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="J93" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="K93" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="L93" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="M93" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="D94">
-            <v>59378.814465299998</v>
-          </cell>
-          <cell r="E94">
-            <v>14456.016172</v>
-          </cell>
-          <cell r="F94" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G94" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H94" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="I94" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="J94" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="K94" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="L94" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="M94" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="D95">
-            <v>85903.176497199995</v>
-          </cell>
-          <cell r="E95">
-            <v>21308.430395700001</v>
-          </cell>
-          <cell r="F95" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G95" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H95" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="I95" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="J95" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="K95" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="L95" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="M95" t="e">
-            <v>#N/A</v>
+            <v>2.5179413132999926</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5034,8 +4431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N69" sqref="N69"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R40" sqref="R40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5203,154 +4600,154 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>463238.31868800003</v>
+        <v>680.61613166899997</v>
       </c>
       <c r="C2">
-        <v>455743.234773</v>
+        <v>675.08757563200004</v>
       </c>
       <c r="D2">
-        <v>134.666955315</v>
+        <v>11.604609227199999</v>
       </c>
       <c r="E2">
-        <v>451674.86356799997</v>
+        <v>672.06760342099994</v>
       </c>
       <c r="F2">
-        <v>1672.4028389600001</v>
+        <v>40.895022178300003</v>
       </c>
       <c r="G2">
-        <v>222032.959653</v>
+        <v>471.20373476100002</v>
       </c>
       <c r="H2">
-        <v>180426.032767</v>
+        <v>424.76585640399998</v>
       </c>
       <c r="I2">
-        <v>121631.724397</v>
+        <v>348.757400491</v>
       </c>
       <c r="J2">
-        <v>2038.2902099200001</v>
+        <v>45.147427500600003</v>
       </c>
       <c r="K2">
-        <v>193959.98298599999</v>
+        <v>440.40888159299999</v>
       </c>
       <c r="L2">
-        <v>49047.5254049</v>
+        <v>221.466759142</v>
       </c>
       <c r="M2">
-        <v>506463.60804700002</v>
+        <v>711.66256614099996</v>
       </c>
       <c r="N2">
-        <v>40015.586386800001</v>
+        <v>200.038962172</v>
       </c>
       <c r="O2">
-        <v>2595.0583107399998</v>
+        <v>50.941714838999999</v>
       </c>
       <c r="P2">
-        <v>164.138564178</v>
+        <v>12.811657354799999</v>
       </c>
       <c r="Q2">
-        <v>352854.58777699998</v>
+        <v>594.01564607099999</v>
       </c>
       <c r="R2">
-        <v>815.16752990400005</v>
+        <v>28.551138854800001</v>
       </c>
       <c r="S2">
-        <v>388.99818899600001</v>
+        <v>19.723037012500001</v>
       </c>
       <c r="T2">
-        <v>225.16192024899999</v>
+        <v>15.0053963709</v>
       </c>
       <c r="U2">
-        <v>130.724800147</v>
+        <v>11.433494660299999</v>
       </c>
       <c r="V2">
-        <v>169104.15583199999</v>
+        <v>411.22275694799998</v>
       </c>
       <c r="W2">
-        <v>322128.81872899999</v>
+        <v>567.56393360499999</v>
       </c>
       <c r="X2">
-        <v>243339.30226600001</v>
+        <v>493.29433634100002</v>
       </c>
       <c r="Y2">
-        <v>1022.83282472</v>
+        <v>31.9817576865</v>
       </c>
       <c r="Z2">
-        <v>23606.347731900001</v>
+        <v>153.64357367599999</v>
       </c>
       <c r="AA2">
-        <v>326322.07946400001</v>
+        <v>571.24607610400005</v>
       </c>
       <c r="AB2">
-        <v>297380.53109200002</v>
+        <v>545.32607776600003</v>
       </c>
       <c r="AC2">
-        <v>13157.992950100001</v>
+        <v>114.708295036</v>
       </c>
       <c r="AD2">
-        <v>173530.71387599999</v>
+        <v>416.57017881299998</v>
       </c>
       <c r="AE2">
-        <v>103938.132245</v>
+        <v>322.39437378000002</v>
       </c>
       <c r="AF2">
-        <v>96351.067067800002</v>
+        <v>310.40468274099999</v>
       </c>
       <c r="AG2">
-        <v>151.196522668</v>
+        <v>12.2961995213</v>
       </c>
       <c r="AH2">
-        <v>62175.505197999999</v>
+        <v>249.35016582700001</v>
       </c>
       <c r="AI2">
-        <v>10557.8072691</v>
+        <v>102.751191084</v>
       </c>
       <c r="AJ2">
-        <v>190765.814167</v>
+        <v>436.76746006000002</v>
       </c>
       <c r="AK2">
-        <v>41143.3442221</v>
+        <v>202.83822179800001</v>
       </c>
       <c r="AL2">
-        <v>504512.72957299999</v>
+        <v>710.29059515999995</v>
       </c>
       <c r="AM2">
-        <v>381138.28583100002</v>
+        <v>617.36398164399998</v>
       </c>
       <c r="AN2">
-        <v>177533.822881</v>
+        <v>421.34762712200001</v>
       </c>
       <c r="AO2">
-        <v>480281.64986200002</v>
+        <v>693.02355649900005</v>
       </c>
       <c r="AP2">
-        <v>7688.0194411800003</v>
+        <v>87.681351729900001</v>
       </c>
       <c r="AQ2">
-        <v>241.19093847799999</v>
+        <v>15.530323192999999</v>
       </c>
       <c r="AR2">
-        <v>17939.762821200002</v>
+        <v>133.93939980900001</v>
       </c>
       <c r="AS2">
-        <v>497381.58592400001</v>
+        <v>705.25285247500005</v>
       </c>
       <c r="AT2">
-        <v>62770.584128000002</v>
+        <v>250.54058379400001</v>
       </c>
       <c r="AU2">
-        <v>8172.59594216</v>
+        <v>90.402411152400006</v>
       </c>
       <c r="AV2">
-        <v>9966.4876895399993</v>
+        <v>99.832297827600001</v>
       </c>
       <c r="AW2">
-        <v>117310.410196</v>
+        <v>342.50607322500002</v>
       </c>
       <c r="AX2">
-        <v>433368.45924</v>
+        <v>658.30726810500005</v>
       </c>
       <c r="AY2">
-        <v>382564.43184899999</v>
+        <v>618.51793171199995</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.25">
@@ -5358,154 +4755,154 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>751.60959097499995</v>
+        <v>27.4154991013</v>
       </c>
       <c r="C3">
-        <v>108.02324467</v>
+        <v>10.393423145</v>
       </c>
       <c r="D3">
-        <v>192.63449582199999</v>
+        <v>13.8792829722</v>
       </c>
       <c r="E3">
-        <v>3126.7530051099998</v>
+        <v>55.917376593599997</v>
       </c>
       <c r="F3">
-        <v>115.2773325</v>
+        <v>10.7367282028</v>
       </c>
       <c r="G3">
-        <v>21990.107099100002</v>
+        <v>148.29061702999999</v>
       </c>
       <c r="H3">
-        <v>115.294973842</v>
+        <v>10.7375497131</v>
       </c>
       <c r="I3">
-        <v>171.47844857300001</v>
+        <v>13.0949779906</v>
       </c>
       <c r="J3">
-        <v>197.65131870900001</v>
+        <v>14.058851969799999</v>
       </c>
       <c r="K3">
-        <v>21615.785297900002</v>
+        <v>147.023077433</v>
       </c>
       <c r="L3">
-        <v>63097.194867600003</v>
+        <v>251.19155015199999</v>
       </c>
       <c r="M3">
-        <v>8011.4479006399997</v>
+        <v>89.506691932199999</v>
       </c>
       <c r="N3">
-        <v>225.16192024899999</v>
+        <v>15.0053963709</v>
       </c>
       <c r="O3">
-        <v>6940.3488967699996</v>
+        <v>83.308756423099993</v>
       </c>
       <c r="P3">
-        <v>24126.318456000001</v>
+        <v>155.326489872</v>
       </c>
       <c r="Q3">
-        <v>102.742225086</v>
+        <v>10.1361839509</v>
       </c>
       <c r="R3">
-        <v>137170.34112699999</v>
+        <v>370.36514567</v>
       </c>
       <c r="S3">
-        <v>7687.9855336600003</v>
+        <v>87.681158373200006</v>
       </c>
       <c r="T3">
-        <v>351.70768232900002</v>
+        <v>18.7538711292</v>
       </c>
       <c r="U3">
-        <v>2379.3518019799999</v>
+        <v>48.778599836200002</v>
       </c>
       <c r="V3">
-        <v>259.51502964700001</v>
+        <v>16.109470185199999</v>
       </c>
       <c r="W3">
-        <v>199.801792038</v>
+        <v>14.1351261769</v>
       </c>
       <c r="X3">
-        <v>225.226167756</v>
+        <v>15.0075370316</v>
       </c>
       <c r="Y3">
-        <v>38388.3446635</v>
+        <v>195.929437971</v>
       </c>
       <c r="Z3">
-        <v>187.20154091699999</v>
+        <v>13.682161412499999</v>
       </c>
       <c r="AA3">
-        <v>17563.183664100001</v>
+        <v>132.52616218700001</v>
       </c>
       <c r="AB3">
-        <v>830.92800849100001</v>
+        <v>28.8258219049</v>
       </c>
       <c r="AC3">
-        <v>48527.262000900002</v>
+        <v>220.28904194500001</v>
       </c>
       <c r="AD3">
-        <v>225.16192024899999</v>
+        <v>15.0053963709</v>
       </c>
       <c r="AE3">
-        <v>1174.7879772199999</v>
+        <v>34.275180192400001</v>
       </c>
       <c r="AF3">
-        <v>643.29789994600003</v>
+        <v>25.363317999500001</v>
       </c>
       <c r="AG3">
-        <v>128.853587686</v>
+        <v>11.351369418999999</v>
       </c>
       <c r="AH3">
-        <v>191.07712410900001</v>
+        <v>13.823064931799999</v>
       </c>
       <c r="AI3">
-        <v>123.912004396</v>
+        <v>11.131576905199999</v>
       </c>
       <c r="AJ3">
-        <v>173.396863204</v>
+        <v>13.1680242711</v>
       </c>
       <c r="AK3">
-        <v>27606.9742401</v>
+        <v>166.15346592899999</v>
       </c>
       <c r="AL3">
-        <v>8826.1615417400008</v>
+        <v>93.9476531997</v>
       </c>
       <c r="AM3">
-        <v>151.37270889000001</v>
+        <v>12.303361690599999</v>
       </c>
       <c r="AN3">
-        <v>13390.6159556</v>
+        <v>115.71782903099999</v>
       </c>
       <c r="AO3">
-        <v>1861.50192928</v>
+        <v>43.1451263676</v>
       </c>
       <c r="AP3">
-        <v>3227.4424146900001</v>
+        <v>56.810583650300003</v>
       </c>
       <c r="AQ3">
-        <v>138.06170843300001</v>
+        <v>11.7499663162</v>
       </c>
       <c r="AR3">
-        <v>232.23863531200001</v>
+        <v>15.2393777862</v>
       </c>
       <c r="AS3">
-        <v>209.85220194999999</v>
+        <v>14.486276331399999</v>
       </c>
       <c r="AT3">
-        <v>51460.069185300003</v>
+        <v>226.84811920199999</v>
       </c>
       <c r="AU3">
-        <v>28296.641022899999</v>
+        <v>168.216054593</v>
       </c>
       <c r="AV3">
-        <v>157.74145997700001</v>
+        <v>12.5595167095</v>
       </c>
       <c r="AW3">
-        <v>3223.0885290699998</v>
+        <v>56.772251400400002</v>
       </c>
       <c r="AX3">
-        <v>220.49988542599999</v>
+        <v>14.849238547000001</v>
       </c>
       <c r="AY3">
-        <v>3085.8998043500001</v>
+        <v>55.550875819799998</v>
       </c>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.25">
@@ -5513,154 +4910,154 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>253318.43621399999</v>
+        <v>503.30749667999999</v>
       </c>
       <c r="C4">
-        <v>85728.140442100004</v>
+        <v>292.793682381</v>
       </c>
       <c r="D4">
-        <v>12942.0762708</v>
+        <v>113.763246573</v>
       </c>
       <c r="E4">
-        <v>19550.009497399999</v>
+        <v>139.82134850400001</v>
       </c>
       <c r="F4">
-        <v>4568.6121184800004</v>
+        <v>67.591509218799999</v>
       </c>
       <c r="G4">
-        <v>133.72322782699999</v>
+        <v>11.563875986299999</v>
       </c>
       <c r="H4">
-        <v>228.172588225</v>
+        <v>15.105382756699999</v>
       </c>
       <c r="I4">
-        <v>4110.9003095799999</v>
+        <v>64.116302993700003</v>
       </c>
       <c r="J4">
-        <v>225.16192024899999</v>
+        <v>15.0053963709</v>
       </c>
       <c r="K4">
-        <v>131.51286921900001</v>
+        <v>11.4679060521</v>
       </c>
       <c r="L4">
-        <v>108212.444841</v>
+        <v>328.95660023900001</v>
       </c>
       <c r="M4">
-        <v>225.16192024899999</v>
+        <v>15.0053963709</v>
       </c>
       <c r="N4">
-        <v>119.811073674</v>
+        <v>10.945824485799999</v>
       </c>
       <c r="O4">
-        <v>225.16192024899999</v>
+        <v>15.0053963709</v>
       </c>
       <c r="P4">
-        <v>2491.5407286499999</v>
+        <v>49.915335605899998</v>
       </c>
       <c r="Q4">
-        <v>150.965386986</v>
+        <v>12.2867972632</v>
       </c>
       <c r="R4">
-        <v>7074.0378027500001</v>
+        <v>84.107299342900006</v>
       </c>
       <c r="S4">
-        <v>1236.3616694899999</v>
+        <v>35.161934950899997</v>
       </c>
       <c r="T4">
-        <v>137.304430846</v>
+        <v>11.7176973355</v>
       </c>
       <c r="U4">
-        <v>282.098675356</v>
+        <v>16.795793382700001</v>
       </c>
       <c r="V4">
-        <v>4701.8106425100004</v>
+        <v>68.569750200100003</v>
       </c>
       <c r="W4">
-        <v>169.07149315500001</v>
+        <v>13.002749445999999</v>
       </c>
       <c r="X4">
-        <v>1040.4690845499999</v>
+        <v>32.256303020499999</v>
       </c>
       <c r="Y4">
-        <v>143.24099668700001</v>
+        <v>11.968333078900001</v>
       </c>
       <c r="Z4">
-        <v>3486.6811697399999</v>
+        <v>59.048125878299999</v>
       </c>
       <c r="AA4">
-        <v>19378.089240500001</v>
+        <v>139.20520550800001</v>
       </c>
       <c r="AB4">
-        <v>206.42509194100001</v>
+        <v>14.367501242099999</v>
       </c>
       <c r="AC4">
-        <v>225.16192024899999</v>
+        <v>15.0053963709</v>
       </c>
       <c r="AD4">
-        <v>2962.36555021</v>
+        <v>54.427617531999999</v>
       </c>
       <c r="AE4">
-        <v>5518.75686847</v>
+        <v>74.288336018999999</v>
       </c>
       <c r="AF4">
-        <v>225.16192024899999</v>
+        <v>15.0053963709</v>
       </c>
       <c r="AG4">
-        <v>87406.213197399993</v>
+        <v>295.645418022</v>
       </c>
       <c r="AH4">
-        <v>218.18388559100001</v>
+        <v>14.7710488995</v>
       </c>
       <c r="AI4">
-        <v>169.339217889</v>
+        <v>13.0130403015</v>
       </c>
       <c r="AJ4">
-        <v>46080.933298800002</v>
+        <v>214.66469970399999</v>
       </c>
       <c r="AK4">
-        <v>220.57826238000001</v>
+        <v>14.8518774025</v>
       </c>
       <c r="AL4">
-        <v>125.548148157</v>
+        <v>11.2048270025</v>
       </c>
       <c r="AM4">
-        <v>1852.28464035</v>
+        <v>43.038176545399999</v>
       </c>
       <c r="AN4">
-        <v>51806.480343800002</v>
+        <v>227.610369588</v>
       </c>
       <c r="AO4">
-        <v>205.01624311399999</v>
+        <v>14.318388286199999</v>
       </c>
       <c r="AP4">
-        <v>149.70891632600001</v>
+        <v>12.235559501999999</v>
       </c>
       <c r="AQ4">
-        <v>151.764841265</v>
+        <v>12.319287368399999</v>
       </c>
       <c r="AR4">
-        <v>36388.8777883</v>
+        <v>190.75868994199999</v>
       </c>
       <c r="AS4">
-        <v>178.341898429</v>
+        <v>13.3544711026</v>
       </c>
       <c r="AT4">
-        <v>273.36847043300003</v>
+        <v>16.533858304500001</v>
       </c>
       <c r="AU4">
-        <v>168.59733609099999</v>
+        <v>12.9845036906</v>
       </c>
       <c r="AV4">
-        <v>218.01595891900001</v>
+        <v>14.7653634875</v>
       </c>
       <c r="AW4">
-        <v>383.084887192</v>
+        <v>19.572554437099999</v>
       </c>
       <c r="AX4">
-        <v>263.27098823099999</v>
+        <v>16.225627514199999</v>
       </c>
       <c r="AY4">
-        <v>166505.11206799999</v>
+        <v>408.05037932599998</v>
       </c>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.25">
@@ -5668,154 +5065,154 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>225.16192024899999</v>
+        <v>15.0053963709</v>
       </c>
       <c r="C5">
-        <v>223.272319447</v>
+        <v>14.942299670600001</v>
       </c>
       <c r="D5">
-        <v>193.82306631700001</v>
+        <v>13.922035279299999</v>
       </c>
       <c r="E5">
-        <v>345.67304398099998</v>
+        <v>18.592284528299999</v>
       </c>
       <c r="F5">
-        <v>195.00484243899999</v>
+        <v>13.9644134298</v>
       </c>
       <c r="G5">
-        <v>221.380798476</v>
+        <v>14.8788708737</v>
       </c>
       <c r="H5">
-        <v>208.68636125399999</v>
+        <v>14.445980799299999</v>
       </c>
       <c r="I5">
-        <v>250.32542526399999</v>
+        <v>15.8216758045</v>
       </c>
       <c r="J5">
-        <v>212.91830363299999</v>
+        <v>14.5917203795</v>
       </c>
       <c r="K5">
-        <v>218.48518964100001</v>
+        <v>14.7812445227</v>
       </c>
       <c r="L5">
-        <v>220.759208425</v>
+        <v>14.857967843000001</v>
       </c>
       <c r="M5">
-        <v>246.31033420099999</v>
+        <v>15.6942771162</v>
       </c>
       <c r="N5">
-        <v>213.575952895</v>
+        <v>14.6142380197</v>
       </c>
       <c r="O5">
-        <v>213.91998489400001</v>
+        <v>14.6260037226</v>
       </c>
       <c r="P5">
-        <v>223.54715328699999</v>
+        <v>14.951493346399999</v>
       </c>
       <c r="Q5">
-        <v>237.714171851</v>
+        <v>15.417982093999999</v>
       </c>
       <c r="R5">
-        <v>207.16619348</v>
+        <v>14.393269033799999</v>
       </c>
       <c r="S5">
-        <v>215.28459683200001</v>
+        <v>14.6725797606</v>
       </c>
       <c r="T5">
-        <v>378.767518913</v>
+        <v>19.4619505424</v>
       </c>
       <c r="U5">
-        <v>224.500665607</v>
+        <v>14.983346275300001</v>
       </c>
       <c r="V5">
-        <v>221.49274438699999</v>
+        <v>14.8826323071</v>
       </c>
       <c r="W5">
-        <v>265.81001780700001</v>
+        <v>16.3036811122</v>
       </c>
       <c r="X5">
-        <v>222.73594446499999</v>
+        <v>14.924340671</v>
       </c>
       <c r="Y5">
-        <v>228.6148292</v>
+        <v>15.120014193099999</v>
       </c>
       <c r="Z5">
-        <v>198.30474592900001</v>
+        <v>14.082071791100001</v>
       </c>
       <c r="AA5">
-        <v>203.22474749099999</v>
+        <v>14.255691757699999</v>
       </c>
       <c r="AB5">
-        <v>220.59072243099999</v>
+        <v>14.8522968739</v>
       </c>
       <c r="AC5">
-        <v>206.52026357599999</v>
+        <v>14.370812905899999</v>
       </c>
       <c r="AD5">
-        <v>217.96998667400001</v>
+        <v>14.763806645800001</v>
       </c>
       <c r="AE5">
-        <v>219.37530346899999</v>
+        <v>14.811323488099999</v>
       </c>
       <c r="AF5">
-        <v>225.16192024899999</v>
+        <v>15.0053963709</v>
       </c>
       <c r="AG5">
-        <v>335.684317599</v>
+        <v>18.321689812900001</v>
       </c>
       <c r="AH5">
-        <v>202.49008461400001</v>
+        <v>14.229901075300001</v>
       </c>
       <c r="AI5">
-        <v>203.014592835</v>
+        <v>14.2483189477</v>
       </c>
       <c r="AJ5">
-        <v>225.16192024899999</v>
+        <v>15.0053963709</v>
       </c>
       <c r="AK5">
-        <v>221.11721558599999</v>
+        <v>14.8700106115</v>
       </c>
       <c r="AL5">
-        <v>216.687357682</v>
+        <v>14.720304265899999</v>
       </c>
       <c r="AM5">
-        <v>811.48230883500003</v>
+        <v>28.486528550100001</v>
       </c>
       <c r="AN5">
-        <v>149.367312379</v>
+        <v>12.2215920558</v>
       </c>
       <c r="AO5">
-        <v>217.24585331399999</v>
+        <v>14.739262305600001</v>
       </c>
       <c r="AP5">
-        <v>213.71348152300001</v>
+        <v>14.618942558300001</v>
       </c>
       <c r="AQ5">
-        <v>204.36634853800001</v>
+        <v>14.2956758685</v>
       </c>
       <c r="AR5">
-        <v>221.32717283100001</v>
+        <v>14.8770686908</v>
       </c>
       <c r="AS5">
-        <v>222.435993142</v>
+        <v>14.9142882211</v>
       </c>
       <c r="AT5">
-        <v>665.86578173800001</v>
+        <v>25.804375244100001</v>
       </c>
       <c r="AU5">
-        <v>249.387007627</v>
+        <v>15.7919918828</v>
       </c>
       <c r="AV5">
-        <v>208.49557459799999</v>
+        <v>14.4393758382</v>
       </c>
       <c r="AW5">
-        <v>398.08696970699998</v>
+        <v>19.9521169229</v>
       </c>
       <c r="AX5">
-        <v>422.06268552099999</v>
+        <v>20.544164269199999</v>
       </c>
       <c r="AY5">
-        <v>207.56556601700001</v>
+        <v>14.4071359408</v>
       </c>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.25">
@@ -5823,154 +5220,154 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>217.94842754499999</v>
+        <v>14.7630764932</v>
       </c>
       <c r="C6">
-        <v>243.64027141</v>
+        <v>15.608980473100001</v>
       </c>
       <c r="D6">
-        <v>225.161536708</v>
+        <v>15.005383590799999</v>
       </c>
       <c r="E6">
-        <v>231.806853289</v>
+        <v>15.2252045401</v>
       </c>
       <c r="F6">
-        <v>214.19086242200001</v>
+        <v>14.635260927699999</v>
       </c>
       <c r="G6">
-        <v>222.95988394099999</v>
+        <v>14.9318412777</v>
       </c>
       <c r="H6">
-        <v>223.085837844</v>
+        <v>14.9360583101</v>
       </c>
       <c r="I6">
-        <v>221.268783103</v>
+        <v>14.875106154299999</v>
       </c>
       <c r="J6">
-        <v>152.60465102800001</v>
+        <v>12.353325504800001</v>
       </c>
       <c r="K6">
-        <v>223.38920289399999</v>
+        <v>14.9462103188</v>
       </c>
       <c r="L6">
-        <v>266.37668848099997</v>
+        <v>16.321050471100001</v>
       </c>
       <c r="M6">
-        <v>215.81794016399999</v>
+        <v>14.6907433496</v>
       </c>
       <c r="N6">
-        <v>221.846940953</v>
+        <v>14.8945272148</v>
       </c>
       <c r="O6">
-        <v>210.98782349499999</v>
+        <v>14.5254199077</v>
       </c>
       <c r="P6">
-        <v>230.18336162200001</v>
+        <v>15.1717949374</v>
       </c>
       <c r="Q6">
-        <v>214.824780261</v>
+        <v>14.656902137299999</v>
       </c>
       <c r="R6">
-        <v>206.515399003</v>
+        <v>14.3706436531</v>
       </c>
       <c r="S6">
-        <v>224.48643697700001</v>
+        <v>14.982871453</v>
       </c>
       <c r="T6">
-        <v>214.52748112899999</v>
+        <v>14.646756676100001</v>
       </c>
       <c r="U6">
-        <v>212.337896793</v>
+        <v>14.571818582200001</v>
       </c>
       <c r="V6">
-        <v>2544.05556209</v>
+        <v>50.438631643699999</v>
       </c>
       <c r="W6">
-        <v>215.93856029400001</v>
+        <v>14.6948480868</v>
       </c>
       <c r="X6">
-        <v>223.14864187000001</v>
+        <v>14.938160591899999</v>
       </c>
       <c r="Y6">
-        <v>218.80387543000001</v>
+        <v>14.792020667599999</v>
       </c>
       <c r="Z6">
-        <v>214.54851907400001</v>
+        <v>14.647474836100001</v>
       </c>
       <c r="AA6">
-        <v>224.984887246</v>
+        <v>14.9994962331</v>
       </c>
       <c r="AB6">
-        <v>223.928744771</v>
+        <v>14.9642488876</v>
       </c>
       <c r="AC6">
-        <v>186.031920246</v>
+        <v>13.639351899799999</v>
       </c>
       <c r="AD6">
-        <v>220.87584465200001</v>
+        <v>14.861892364399999</v>
       </c>
       <c r="AE6">
-        <v>547.24857938599996</v>
+        <v>23.393344766999999</v>
       </c>
       <c r="AF6">
-        <v>225.16224307499999</v>
+        <v>15.0054071279</v>
       </c>
       <c r="AG6">
-        <v>280.99648743300003</v>
+        <v>16.762949842800001</v>
       </c>
       <c r="AH6">
-        <v>214.634707163</v>
+        <v>14.6504166208</v>
       </c>
       <c r="AI6">
-        <v>848.14636940499997</v>
+        <v>29.122952621700001</v>
       </c>
       <c r="AJ6">
-        <v>214.99690217</v>
+        <v>14.6627726631</v>
       </c>
       <c r="AK6">
-        <v>846.80120450599998</v>
+        <v>29.099848874300001</v>
       </c>
       <c r="AL6">
-        <v>217.189425481</v>
+        <v>14.737347979899999</v>
       </c>
       <c r="AM6">
-        <v>155.208897603</v>
+        <v>12.458286302799999</v>
       </c>
       <c r="AN6">
-        <v>221.60101924599999</v>
+        <v>14.8862694872</v>
       </c>
       <c r="AO6">
-        <v>222.61585607999999</v>
+        <v>14.9203168894</v>
       </c>
       <c r="AP6">
-        <v>211.44981194600001</v>
+        <v>14.541313969000001</v>
       </c>
       <c r="AQ6">
-        <v>225.16191909299999</v>
+        <v>15.0053963324</v>
       </c>
       <c r="AR6">
-        <v>225.16179353499999</v>
+        <v>15.0053921487</v>
       </c>
       <c r="AS6">
-        <v>210.355277543</v>
+        <v>14.503629805799999</v>
       </c>
       <c r="AT6">
-        <v>226.125771004</v>
+        <v>15.0374788779</v>
       </c>
       <c r="AU6">
-        <v>219.40331077299999</v>
+        <v>14.8122689272</v>
       </c>
       <c r="AV6">
-        <v>217.81177669799999</v>
+        <v>14.7584476385</v>
       </c>
       <c r="AW6">
-        <v>239.04629121799999</v>
+        <v>15.461121926200001</v>
       </c>
       <c r="AX6">
-        <v>203.55678578600001</v>
+        <v>14.2673328196</v>
       </c>
       <c r="AY6">
-        <v>221.35955580800001</v>
+        <v>14.8781570031</v>
       </c>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.25">
@@ -5978,154 +5375,154 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>220.83728584400001</v>
+        <v>14.8605950703</v>
       </c>
       <c r="C7">
-        <v>204.25250154299999</v>
+        <v>14.2916934456</v>
       </c>
       <c r="D7">
-        <v>220.84721411999999</v>
+        <v>14.860929113599999</v>
       </c>
       <c r="E7">
-        <v>222.782435521</v>
+        <v>14.9258981479</v>
       </c>
       <c r="F7">
-        <v>223.71229342399999</v>
+        <v>14.957014856700001</v>
       </c>
       <c r="G7">
-        <v>223.18742095499999</v>
+        <v>14.939458522800001</v>
       </c>
       <c r="H7">
-        <v>206.26209016499999</v>
+        <v>14.3618275357</v>
       </c>
       <c r="I7">
-        <v>213.03134301599999</v>
+        <v>14.5955932739</v>
       </c>
       <c r="J7">
-        <v>216.624149676</v>
+        <v>14.718157142700001</v>
       </c>
       <c r="K7">
-        <v>220.08297452400001</v>
+        <v>14.835193781099999</v>
       </c>
       <c r="L7">
-        <v>243.02655443800001</v>
+        <v>15.5893089788</v>
       </c>
       <c r="M7">
-        <v>236.17737932399999</v>
+        <v>15.368063616600001</v>
       </c>
       <c r="N7">
-        <v>259.69410459800002</v>
+        <v>16.115027291299999</v>
       </c>
       <c r="O7">
-        <v>214.71616744100001</v>
+        <v>14.653196492299999</v>
       </c>
       <c r="P7">
-        <v>222.80194709400001</v>
+        <v>14.9265517483</v>
       </c>
       <c r="Q7">
-        <v>225.171426978</v>
+        <v>15.0057131446</v>
       </c>
       <c r="R7">
-        <v>205.01688720499999</v>
+        <v>14.3184107779</v>
       </c>
       <c r="S7">
-        <v>219.61178352900001</v>
+        <v>14.8193044212</v>
       </c>
       <c r="T7">
-        <v>219.94052189600001</v>
+        <v>14.8303918322</v>
       </c>
       <c r="U7">
-        <v>212.84021252299999</v>
+        <v>14.5890442635</v>
       </c>
       <c r="V7">
-        <v>148.216787436</v>
+        <v>12.174431709</v>
       </c>
       <c r="W7">
-        <v>45823.761431899999</v>
+        <v>214.06485333200001</v>
       </c>
       <c r="X7">
-        <v>221.823888751</v>
+        <v>14.893753346700001</v>
       </c>
       <c r="Y7">
-        <v>221.94970676400001</v>
+        <v>14.8979765997</v>
       </c>
       <c r="Z7">
-        <v>224.02997849600001</v>
+        <v>14.967631024799999</v>
       </c>
       <c r="AA7">
-        <v>217.62988944599999</v>
+        <v>14.752284211099999</v>
       </c>
       <c r="AB7">
-        <v>236.74269278</v>
+        <v>15.386445098899999</v>
       </c>
       <c r="AC7">
-        <v>220.936877471</v>
+        <v>14.863945555300001</v>
       </c>
       <c r="AD7">
-        <v>222.51366824600001</v>
+        <v>14.916892043800001</v>
       </c>
       <c r="AE7">
-        <v>223.826600601</v>
+        <v>14.960835558299999</v>
       </c>
       <c r="AF7">
-        <v>249.93287377199999</v>
+        <v>15.809265440600001</v>
       </c>
       <c r="AG7">
-        <v>221.35819111800001</v>
+        <v>14.8781111408</v>
       </c>
       <c r="AH7">
-        <v>226.03938344900001</v>
+        <v>15.0346061953</v>
       </c>
       <c r="AI7">
-        <v>227.09393412399999</v>
+        <v>15.0696361643</v>
       </c>
       <c r="AJ7">
-        <v>221.07795227899999</v>
+        <v>14.868690335</v>
       </c>
       <c r="AK7">
-        <v>219.60150891000001</v>
+        <v>14.818957753799999</v>
       </c>
       <c r="AL7">
-        <v>219.57237380999999</v>
+        <v>14.817974686499999</v>
       </c>
       <c r="AM7">
-        <v>229.278666437</v>
+        <v>15.141950549300001</v>
       </c>
       <c r="AN7">
-        <v>220.567576546</v>
+        <v>14.8515176513</v>
       </c>
       <c r="AO7">
-        <v>408.726238438</v>
+        <v>20.216978964199999</v>
       </c>
       <c r="AP7">
-        <v>204.54706976899999</v>
+        <v>14.3019953073</v>
       </c>
       <c r="AQ7">
-        <v>216.09226136000001</v>
+        <v>14.700076916800001</v>
       </c>
       <c r="AR7">
-        <v>176.691229787</v>
+        <v>13.292525335200001</v>
       </c>
       <c r="AS7">
-        <v>220.96744878199999</v>
+        <v>14.8649738911</v>
       </c>
       <c r="AT7">
-        <v>220.10001124600001</v>
+        <v>14.835767969500001</v>
       </c>
       <c r="AU7">
-        <v>217.45268753799999</v>
+        <v>14.7462770738</v>
       </c>
       <c r="AV7">
-        <v>229.04100878099999</v>
+        <v>15.134100858</v>
       </c>
       <c r="AW7">
-        <v>219.96766927600001</v>
+        <v>14.831307065700001</v>
       </c>
       <c r="AX7">
-        <v>224.78067054499999</v>
+        <v>14.9926872356</v>
       </c>
       <c r="AY7">
-        <v>220.129146206</v>
+        <v>14.836749853200001</v>
       </c>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.25">
@@ -6133,154 +5530,154 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>209.35257706900001</v>
+        <v>14.469021289300001</v>
       </c>
       <c r="C8">
-        <v>234.36473432</v>
+        <v>15.308975612999999</v>
       </c>
       <c r="D8">
-        <v>228.14326038499999</v>
+        <v>15.104411950999999</v>
       </c>
       <c r="E8">
-        <v>225.155663954</v>
+        <v>15.005187901299999</v>
       </c>
       <c r="F8">
-        <v>564.54606961699994</v>
+        <v>23.760178232000001</v>
       </c>
       <c r="G8">
-        <v>223.01031091300001</v>
+        <v>14.933529754</v>
       </c>
       <c r="H8">
-        <v>239.236715742</v>
+        <v>15.4672788732</v>
       </c>
       <c r="I8">
-        <v>213.80073946600001</v>
+        <v>14.6219266674</v>
       </c>
       <c r="J8">
-        <v>220.18878110700001</v>
+        <v>14.838759419400001</v>
       </c>
       <c r="K8">
-        <v>222.77582720800001</v>
+        <v>14.925676775499999</v>
       </c>
       <c r="L8">
-        <v>216.44137026999999</v>
+        <v>14.711946515299999</v>
       </c>
       <c r="M8">
-        <v>212.67472258800001</v>
+        <v>14.583371441100001</v>
       </c>
       <c r="N8">
-        <v>225.19310964499999</v>
+        <v>15.0064356076</v>
       </c>
       <c r="O8">
-        <v>223.96991180699999</v>
+        <v>14.9656243374</v>
       </c>
       <c r="P8">
-        <v>205.54427670000001</v>
+        <v>14.3368154309</v>
       </c>
       <c r="Q8">
-        <v>197.87177417800001</v>
+        <v>14.066690235399999</v>
       </c>
       <c r="R8">
-        <v>220.01558864099999</v>
+        <v>14.832922457900001</v>
       </c>
       <c r="S8">
-        <v>220.763672211</v>
+        <v>14.8581180575</v>
       </c>
       <c r="T8">
-        <v>215.95664767</v>
+        <v>14.695463506499999</v>
       </c>
       <c r="U8">
-        <v>229.65349179899999</v>
+        <v>15.154322544999999</v>
       </c>
       <c r="V8">
-        <v>303.39618064699999</v>
+        <v>17.4182714598</v>
       </c>
       <c r="W8">
-        <v>211.555275572</v>
+        <v>14.5449398614</v>
       </c>
       <c r="X8">
-        <v>225.149931759</v>
+        <v>15.004996893</v>
       </c>
       <c r="Y8">
-        <v>220.36746712199999</v>
+        <v>14.84477912</v>
       </c>
       <c r="Z8">
-        <v>219.89681067500001</v>
+        <v>14.828918054800001</v>
       </c>
       <c r="AA8">
-        <v>216.72830833500001</v>
+        <v>14.721695158299999</v>
       </c>
       <c r="AB8">
-        <v>440.01589368200001</v>
+        <v>20.976555810800001</v>
       </c>
       <c r="AC8">
-        <v>220.81022560700001</v>
+        <v>14.859684572900001</v>
       </c>
       <c r="AD8">
-        <v>224.68260858799999</v>
+        <v>14.9894165526</v>
       </c>
       <c r="AE8">
-        <v>235.81283551600001</v>
+        <v>15.356198602399999</v>
       </c>
       <c r="AF8">
-        <v>1931.4123764999999</v>
+        <v>43.947836994600003</v>
       </c>
       <c r="AG8">
-        <v>220.35336565899999</v>
+        <v>14.844304148699999</v>
       </c>
       <c r="AH8">
-        <v>300.77259659399999</v>
+        <v>17.342796677399999</v>
       </c>
       <c r="AI8">
-        <v>197.375338548</v>
+        <v>14.049033367</v>
       </c>
       <c r="AJ8">
-        <v>190.46580100400001</v>
+        <v>13.800934787299999</v>
       </c>
       <c r="AK8">
-        <v>221.83625086399999</v>
+        <v>14.894168350899999</v>
       </c>
       <c r="AL8">
-        <v>193.63694401199999</v>
+        <v>13.9153492235</v>
       </c>
       <c r="AM8">
-        <v>218.83857680599999</v>
+        <v>14.7931935973</v>
       </c>
       <c r="AN8">
-        <v>223.5505225</v>
+        <v>14.9516060174</v>
       </c>
       <c r="AO8">
-        <v>217.27509367299999</v>
+        <v>14.740254193</v>
       </c>
       <c r="AP8">
-        <v>322.934206082</v>
+        <v>17.9703702266</v>
       </c>
       <c r="AQ8">
-        <v>219.40389033400001</v>
+        <v>14.8122884908</v>
       </c>
       <c r="AR8">
-        <v>224.78371666699999</v>
+        <v>14.9927888222</v>
       </c>
       <c r="AS8">
-        <v>225.065148134</v>
+        <v>15.0021714473</v>
       </c>
       <c r="AT8">
-        <v>220.79293555199999</v>
+        <v>14.859102784199999</v>
       </c>
       <c r="AU8">
-        <v>220.369895977</v>
+        <v>14.844860928199999</v>
       </c>
       <c r="AV8">
-        <v>220.365155109</v>
+        <v>14.8447012469</v>
       </c>
       <c r="AW8">
-        <v>222.41085561899999</v>
+        <v>14.913445464400001</v>
       </c>
       <c r="AX8">
-        <v>225.09036832800001</v>
+        <v>15.0030119752</v>
       </c>
       <c r="AY8">
-        <v>221.55355546999999</v>
+        <v>14.884675188599999</v>
       </c>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.25">
@@ -6288,154 +5685,154 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>225.13704519500001</v>
+        <v>15.0045674778</v>
       </c>
       <c r="C9">
-        <v>407.61050212999999</v>
+        <v>20.189366065600002</v>
       </c>
       <c r="D9">
-        <v>269.76809101600003</v>
+        <v>16.424618443500002</v>
       </c>
       <c r="E9">
-        <v>220.99145620300001</v>
+        <v>14.8657813856</v>
       </c>
       <c r="F9">
-        <v>4948.9579453099996</v>
+        <v>70.348830447400005</v>
       </c>
       <c r="G9">
-        <v>224.743269957</v>
+        <v>14.9914398894</v>
       </c>
       <c r="H9">
-        <v>222.56747034599999</v>
+        <v>14.9186953299</v>
       </c>
       <c r="I9">
-        <v>213.56044144399999</v>
+        <v>14.613707313500001</v>
       </c>
       <c r="J9">
-        <v>198.35249931000001</v>
+        <v>14.083767227199999</v>
       </c>
       <c r="K9">
-        <v>218.729161987</v>
+        <v>14.789494987599999</v>
       </c>
       <c r="L9">
-        <v>210.051811214</v>
+        <v>14.4931642927</v>
       </c>
       <c r="M9">
-        <v>221.270741622</v>
+        <v>14.8751719863</v>
       </c>
       <c r="N9">
-        <v>211.04822465300001</v>
+        <v>14.5274989125</v>
       </c>
       <c r="O9">
-        <v>434.91146766499998</v>
+        <v>20.854531106300001</v>
       </c>
       <c r="P9">
-        <v>199.18701262600001</v>
+        <v>14.113362909899999</v>
       </c>
       <c r="Q9">
-        <v>259.52319087799998</v>
+        <v>16.1097234886</v>
       </c>
       <c r="R9">
-        <v>255.72031815700001</v>
+        <v>15.991257554000001</v>
       </c>
       <c r="S9">
-        <v>220.81447711499999</v>
+        <v>14.8598276274</v>
       </c>
       <c r="T9">
-        <v>223.301746009</v>
+        <v>14.943284311299999</v>
       </c>
       <c r="U9">
-        <v>220.792262886</v>
+        <v>14.8590801494</v>
       </c>
       <c r="V9">
-        <v>232.41064642500001</v>
+        <v>15.2450203813</v>
       </c>
       <c r="W9">
-        <v>305.69796219</v>
+        <v>17.484220377</v>
       </c>
       <c r="X9">
-        <v>224.834506901</v>
+        <v>14.994482548600001</v>
       </c>
       <c r="Y9">
-        <v>206.415862339</v>
+        <v>14.367180041299999</v>
       </c>
       <c r="Z9">
-        <v>217.61614628699999</v>
+        <v>14.7518184061</v>
       </c>
       <c r="AA9">
-        <v>215.83141986000001</v>
+        <v>14.6912021244</v>
       </c>
       <c r="AB9">
-        <v>216.10717536199999</v>
+        <v>14.7005841844</v>
       </c>
       <c r="AC9">
-        <v>365.853065915</v>
+        <v>19.1272859004</v>
       </c>
       <c r="AD9">
-        <v>283.863285797</v>
+        <v>16.848242810399999</v>
       </c>
       <c r="AE9">
-        <v>221.01945373999999</v>
+        <v>14.866723033</v>
       </c>
       <c r="AF9">
-        <v>224.197915814</v>
+        <v>14.9732399905</v>
       </c>
       <c r="AG9">
-        <v>219.80265909799999</v>
+        <v>14.8257431213</v>
       </c>
       <c r="AH9">
-        <v>217.37826651200001</v>
+        <v>14.7437534743</v>
       </c>
       <c r="AI9">
-        <v>220.33187248900001</v>
+        <v>14.8435801776</v>
       </c>
       <c r="AJ9">
-        <v>215.71996100199999</v>
+        <v>14.6874082466</v>
       </c>
       <c r="AK9">
-        <v>217.05944286900001</v>
+        <v>14.7329373469</v>
       </c>
       <c r="AL9">
-        <v>207.76385562499999</v>
+        <v>14.414015943700001</v>
       </c>
       <c r="AM9">
-        <v>222.305031087</v>
+        <v>14.909897085100001</v>
       </c>
       <c r="AN9">
-        <v>241.40441790200001</v>
+        <v>15.537194660000001</v>
       </c>
       <c r="AO9">
-        <v>225.17035048400001</v>
+        <v>15.0056772751</v>
       </c>
       <c r="AP9">
-        <v>219.76389124599999</v>
+        <v>14.8244356131</v>
       </c>
       <c r="AQ9">
-        <v>223.78444744999999</v>
+        <v>14.959426708600001</v>
       </c>
       <c r="AR9">
-        <v>209.85107627100001</v>
+        <v>14.4862374781</v>
       </c>
       <c r="AS9">
-        <v>226.63940340900001</v>
+        <v>15.054547598899999</v>
       </c>
       <c r="AT9">
-        <v>221.840941824</v>
+        <v>14.894325826399999</v>
       </c>
       <c r="AU9">
-        <v>215.97154541</v>
+        <v>14.69597038</v>
       </c>
       <c r="AV9">
-        <v>219.34708233399999</v>
+        <v>14.8103707696</v>
       </c>
       <c r="AW9">
-        <v>220.53268835099999</v>
+        <v>14.8503430382</v>
       </c>
       <c r="AX9">
-        <v>218.89411361500001</v>
+        <v>14.795070584999999</v>
       </c>
       <c r="AY9">
-        <v>220.50176918299999</v>
+        <v>14.8493019763</v>
       </c>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.25">
@@ -6443,154 +5840,154 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>240.59839571399999</v>
+        <v>15.5112345</v>
       </c>
       <c r="C10">
-        <v>237.80205737399999</v>
+        <v>15.4208319287</v>
       </c>
       <c r="D10">
-        <v>222.11749608599999</v>
+        <v>14.9036068147</v>
       </c>
       <c r="E10">
-        <v>393.55536669600002</v>
+        <v>19.838229928499999</v>
       </c>
       <c r="F10">
-        <v>219.657559007</v>
+        <v>14.8208487951</v>
       </c>
       <c r="G10">
-        <v>330.32336268099999</v>
+        <v>18.174800210200001</v>
       </c>
       <c r="H10">
-        <v>220.89002485500001</v>
+        <v>14.8623694226</v>
       </c>
       <c r="I10">
-        <v>214.843179986</v>
+        <v>14.657529805099999</v>
       </c>
       <c r="J10">
-        <v>227.583254963</v>
+        <v>15.085862751700001</v>
       </c>
       <c r="K10">
-        <v>225.52381435800001</v>
+        <v>15.017450328100001</v>
       </c>
       <c r="L10">
-        <v>207.343995654</v>
+        <v>14.399444282799999</v>
       </c>
       <c r="M10">
-        <v>301.58414467099999</v>
+        <v>17.366178182599999</v>
       </c>
       <c r="N10">
-        <v>228.702776997</v>
+        <v>15.122922237399999</v>
       </c>
       <c r="O10">
-        <v>221.648793305</v>
+        <v>14.887874035799999</v>
       </c>
       <c r="P10">
-        <v>219.50686572999999</v>
+        <v>14.8157640954</v>
       </c>
       <c r="Q10">
-        <v>189.39714121200001</v>
+        <v>13.7621633914</v>
       </c>
       <c r="R10">
-        <v>218.48010695900001</v>
+        <v>14.781072591599999</v>
       </c>
       <c r="S10">
-        <v>212.91488131700001</v>
+        <v>14.591603109899999</v>
       </c>
       <c r="T10">
-        <v>259.15466818099998</v>
+        <v>16.098281528800001</v>
       </c>
       <c r="U10">
-        <v>225.829923683</v>
+        <v>15.027638659599999</v>
       </c>
       <c r="V10">
-        <v>225.28318640000001</v>
+        <v>15.009436578400001</v>
       </c>
       <c r="W10">
-        <v>219.024378353</v>
+        <v>14.799472232199999</v>
       </c>
       <c r="X10">
-        <v>218.75799361700001</v>
+        <v>14.7904696889</v>
       </c>
       <c r="Y10">
-        <v>427.765108607</v>
+        <v>20.6824831345</v>
       </c>
       <c r="Z10">
-        <v>221.45764397100001</v>
+        <v>14.8814530195</v>
       </c>
       <c r="AA10">
-        <v>222.47459794100001</v>
+        <v>14.915582386900001</v>
       </c>
       <c r="AB10">
-        <v>219.43712456200001</v>
+        <v>14.813410294800001</v>
       </c>
       <c r="AC10">
-        <v>214.30692789</v>
+        <v>14.639225658799999</v>
       </c>
       <c r="AD10">
-        <v>222.77219835400001</v>
+        <v>14.925555210900001</v>
       </c>
       <c r="AE10">
-        <v>219.325782124</v>
+        <v>14.8096516544</v>
       </c>
       <c r="AF10">
-        <v>222.60839022499999</v>
+        <v>14.920066696399999</v>
       </c>
       <c r="AG10">
-        <v>258.68641964300002</v>
+        <v>16.083731521099999</v>
       </c>
       <c r="AH10">
-        <v>220.529684178</v>
+        <v>14.850241889499999</v>
       </c>
       <c r="AI10">
-        <v>227.73457504999999</v>
+        <v>15.090877212700001</v>
       </c>
       <c r="AJ10">
-        <v>208.46878034400001</v>
+        <v>14.4384479894</v>
       </c>
       <c r="AK10">
-        <v>224.339885514</v>
+        <v>14.9779800212</v>
       </c>
       <c r="AL10">
-        <v>218.72173223199999</v>
+        <v>14.7892438019</v>
       </c>
       <c r="AM10">
-        <v>211.86726407399999</v>
+        <v>14.555660894400001</v>
       </c>
       <c r="AN10">
-        <v>222.11286776399999</v>
+        <v>14.903451538600001</v>
       </c>
       <c r="AO10">
-        <v>222.62742972000001</v>
+        <v>14.920704732700001</v>
       </c>
       <c r="AP10">
-        <v>219.972455314</v>
+        <v>14.831468414</v>
       </c>
       <c r="AQ10">
-        <v>216.79281970599999</v>
+        <v>14.723886026000001</v>
       </c>
       <c r="AR10">
-        <v>216.71520005400001</v>
+        <v>14.721249948800001</v>
       </c>
       <c r="AS10">
-        <v>220.44412786999999</v>
+        <v>14.847360973300001</v>
       </c>
       <c r="AT10">
-        <v>219.79292224899999</v>
+        <v>14.825414741199999</v>
       </c>
       <c r="AU10">
-        <v>252.151825285</v>
+        <v>15.8792891933</v>
       </c>
       <c r="AV10">
-        <v>251.50004451199999</v>
+        <v>15.8587529305</v>
       </c>
       <c r="AW10">
-        <v>221.00566450900001</v>
+        <v>14.8662592642</v>
       </c>
       <c r="AX10">
-        <v>306.81029868899998</v>
+        <v>17.5160012186</v>
       </c>
       <c r="AY10">
-        <v>211.84049190600001</v>
+        <v>14.5547412174</v>
       </c>
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.25">
@@ -6598,154 +5995,154 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>222.326318077</v>
+        <v>14.9106109223</v>
       </c>
       <c r="C11">
-        <v>220.37172704899999</v>
+        <v>14.8449226017</v>
       </c>
       <c r="D11">
-        <v>270.37099519100002</v>
+        <v>16.442961874000002</v>
       </c>
       <c r="E11">
-        <v>219.025301826</v>
+        <v>14.7995034317</v>
       </c>
       <c r="F11">
-        <v>218.11614887600001</v>
+        <v>14.7687558337</v>
       </c>
       <c r="G11">
-        <v>212.842753426</v>
+        <v>14.5891313458</v>
       </c>
       <c r="H11">
-        <v>218.898471769</v>
+        <v>14.7952178683</v>
       </c>
       <c r="I11">
-        <v>226.85990084700001</v>
+        <v>15.061869101999999</v>
       </c>
       <c r="J11">
-        <v>226.928146467</v>
+        <v>15.0641344413</v>
       </c>
       <c r="K11">
-        <v>219.723905718</v>
+        <v>14.823086915999999</v>
       </c>
       <c r="L11">
-        <v>219.934839614</v>
+        <v>14.830200255399999</v>
       </c>
       <c r="M11">
-        <v>238.23506004999999</v>
+        <v>15.4348650804</v>
       </c>
       <c r="N11">
-        <v>225.160985297</v>
+        <v>15.005365217</v>
       </c>
       <c r="O11">
-        <v>214.279352805</v>
+        <v>14.638283806700001</v>
       </c>
       <c r="P11">
-        <v>220.52865974299999</v>
+        <v>14.8502073973</v>
       </c>
       <c r="Q11">
-        <v>221.66918550299999</v>
+        <v>14.8885588793</v>
       </c>
       <c r="R11">
-        <v>459.85265677299998</v>
+        <v>21.444175357700001</v>
       </c>
       <c r="S11">
-        <v>223.157336018</v>
+        <v>14.9384515937</v>
       </c>
       <c r="T11">
-        <v>222.06649112599999</v>
+        <v>14.901895554799999</v>
       </c>
       <c r="U11">
-        <v>222.441617662</v>
+        <v>14.914476781399999</v>
       </c>
       <c r="V11">
-        <v>219.15672669099999</v>
+        <v>14.803942944099999</v>
       </c>
       <c r="W11">
-        <v>221.30002764100001</v>
+        <v>14.8761563463</v>
       </c>
       <c r="X11">
-        <v>238.008622143</v>
+        <v>15.4275280633</v>
       </c>
       <c r="Y11">
-        <v>227.26616047799999</v>
+        <v>15.075349431399999</v>
       </c>
       <c r="Z11">
-        <v>220.697437224</v>
+        <v>14.855888974499999</v>
       </c>
       <c r="AA11">
-        <v>265.28404527200001</v>
+        <v>16.2875426407</v>
       </c>
       <c r="AB11">
-        <v>210.690118415</v>
+        <v>14.5151685631</v>
       </c>
       <c r="AC11">
-        <v>223.11989306500001</v>
+        <v>14.9371983004</v>
       </c>
       <c r="AD11">
-        <v>267.78037165699999</v>
+        <v>16.363996200700001</v>
       </c>
       <c r="AE11">
-        <v>222.31223293299999</v>
+        <v>14.910138595399999</v>
       </c>
       <c r="AF11">
-        <v>222.173125357</v>
+        <v>14.905473000100001</v>
       </c>
       <c r="AG11">
-        <v>225.03223037999999</v>
+        <v>15.0010743075</v>
       </c>
       <c r="AH11">
-        <v>224.58856566399999</v>
+        <v>14.986279246800001</v>
       </c>
       <c r="AI11">
-        <v>223.04386049600001</v>
+        <v>14.9346530089</v>
       </c>
       <c r="AJ11">
-        <v>222.301190679</v>
+        <v>14.909768297299999</v>
       </c>
       <c r="AK11">
-        <v>219.51717739399999</v>
+        <v>14.816112087700001</v>
       </c>
       <c r="AL11">
-        <v>221.81134567800001</v>
+        <v>14.893332255700001</v>
       </c>
       <c r="AM11">
-        <v>224.83587310499999</v>
+        <v>14.994528105400001</v>
       </c>
       <c r="AN11">
-        <v>220.118591649</v>
+        <v>14.836394159299999</v>
       </c>
       <c r="AO11">
-        <v>431.57096350299997</v>
+        <v>20.774286112999999</v>
       </c>
       <c r="AP11">
-        <v>218.871364836</v>
+        <v>14.7943017691</v>
       </c>
       <c r="AQ11">
-        <v>4880.93415671</v>
+        <v>69.863682673499994</v>
       </c>
       <c r="AR11">
-        <v>213.02621781799999</v>
+        <v>14.5954176993</v>
       </c>
       <c r="AS11">
-        <v>222.70712269500001</v>
+        <v>14.9233750437</v>
       </c>
       <c r="AT11">
-        <v>223.860249431</v>
+        <v>14.961960079800001</v>
       </c>
       <c r="AU11">
-        <v>209.520277255</v>
+        <v>14.474815275299999</v>
       </c>
       <c r="AV11">
-        <v>221.378566683</v>
+        <v>14.8787958748</v>
       </c>
       <c r="AW11">
-        <v>224.594788475</v>
+        <v>14.9864868623</v>
       </c>
       <c r="AX11">
-        <v>227.32175429099999</v>
+        <v>15.0771931834</v>
       </c>
       <c r="AY11">
-        <v>231.92135120699999</v>
+        <v>15.2289642198</v>
       </c>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.25">
@@ -6753,154 +6150,154 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>222.25831024499999</v>
+        <v>14.908330229900001</v>
       </c>
       <c r="C12">
-        <v>218.268501727</v>
+        <v>14.773912878000001</v>
       </c>
       <c r="D12">
-        <v>222.982941275</v>
+        <v>14.9326133438</v>
       </c>
       <c r="E12">
-        <v>222.14551078900001</v>
+        <v>14.9045466482</v>
       </c>
       <c r="F12">
-        <v>206.13566852599999</v>
+        <v>14.357425553600001</v>
       </c>
       <c r="G12">
-        <v>240.65511251999999</v>
+        <v>15.513062641499999</v>
       </c>
       <c r="H12">
-        <v>219.962201515</v>
+        <v>14.831122732800001</v>
       </c>
       <c r="I12">
-        <v>218.38083576700001</v>
+        <v>14.7777141591</v>
       </c>
       <c r="J12">
-        <v>216.10141349</v>
+        <v>14.7003882088</v>
       </c>
       <c r="K12">
-        <v>269.91651385699998</v>
+        <v>16.429136126300001</v>
       </c>
       <c r="L12">
-        <v>221.49328342300001</v>
+        <v>14.882650416600001</v>
       </c>
       <c r="M12">
-        <v>234.52392379899999</v>
+        <v>15.314173950900001</v>
       </c>
       <c r="N12">
-        <v>222.55500176499999</v>
+        <v>14.918277439600001</v>
       </c>
       <c r="O12">
-        <v>230.13197400199999</v>
+        <v>15.1701013181</v>
       </c>
       <c r="P12">
-        <v>218.26184970700001</v>
+        <v>14.7736877491</v>
       </c>
       <c r="Q12">
-        <v>205.45075270699999</v>
+        <v>14.3335533873</v>
       </c>
       <c r="R12">
-        <v>250.11722531999999</v>
+        <v>15.8150948565</v>
       </c>
       <c r="S12">
-        <v>202.85325345800001</v>
+        <v>14.2426561237</v>
       </c>
       <c r="T12">
-        <v>225.137502993</v>
+        <v>15.004582733099999</v>
       </c>
       <c r="U12">
-        <v>229.610639174</v>
+        <v>15.1529086044</v>
       </c>
       <c r="V12">
-        <v>218.74528465200001</v>
+        <v>14.790040049</v>
       </c>
       <c r="W12">
-        <v>233.31653064100001</v>
+        <v>15.2747023094</v>
       </c>
       <c r="X12">
-        <v>231.142124258</v>
+        <v>15.203358979400001</v>
       </c>
       <c r="Y12">
-        <v>211.130060418</v>
+        <v>14.5303152209</v>
       </c>
       <c r="Z12">
-        <v>223.852884139</v>
+        <v>14.9617139439</v>
       </c>
       <c r="AA12">
-        <v>1118.48597752</v>
+        <v>33.443773374400003</v>
       </c>
       <c r="AB12">
-        <v>214.55173402400001</v>
+        <v>14.6475845799</v>
       </c>
       <c r="AC12">
-        <v>221.775737975</v>
+        <v>14.8921367834</v>
       </c>
       <c r="AD12">
-        <v>238.369363255</v>
+        <v>15.439215111399999</v>
       </c>
       <c r="AE12">
-        <v>220.498047318</v>
+        <v>14.849176654500001</v>
       </c>
       <c r="AF12">
-        <v>238.01322134200001</v>
+        <v>15.4276771207</v>
       </c>
       <c r="AG12">
-        <v>214.70075108</v>
+        <v>14.6526704419</v>
       </c>
       <c r="AH12">
-        <v>217.28466986199999</v>
+        <v>14.7405790206</v>
       </c>
       <c r="AI12">
-        <v>230.94999772599999</v>
+        <v>15.1970391105</v>
       </c>
       <c r="AJ12">
-        <v>229.992264226</v>
+        <v>15.165495845000001</v>
       </c>
       <c r="AK12">
-        <v>224.92725537999999</v>
+        <v>14.9975749833</v>
       </c>
       <c r="AL12">
-        <v>214.92885718100001</v>
+        <v>14.660452147899999</v>
       </c>
       <c r="AM12">
-        <v>218.57838190199999</v>
+        <v>14.7843965687</v>
       </c>
       <c r="AN12">
-        <v>222.01979072899999</v>
+        <v>14.900328544300001</v>
       </c>
       <c r="AO12">
-        <v>2174.2518273999999</v>
+        <v>46.628873323299999</v>
       </c>
       <c r="AP12">
-        <v>225.16498494499999</v>
+        <v>15.005498490400001</v>
       </c>
       <c r="AQ12">
-        <v>693.09616798599995</v>
+        <v>26.3267196587</v>
       </c>
       <c r="AR12">
-        <v>225.13817818999999</v>
+        <v>15.004605232699999</v>
       </c>
       <c r="AS12">
-        <v>538.45254163799996</v>
+        <v>23.204580186600001</v>
       </c>
       <c r="AT12">
-        <v>225.494264848</v>
+        <v>15.0164664568</v>
       </c>
       <c r="AU12">
-        <v>305.138017123</v>
+        <v>17.468200168399999</v>
       </c>
       <c r="AV12">
-        <v>257.81812056299998</v>
+        <v>16.0567157465</v>
       </c>
       <c r="AW12">
-        <v>225.16233602599999</v>
+        <v>15.0054102252</v>
       </c>
       <c r="AX12">
-        <v>214.44372633500001</v>
+        <v>14.643897238599999</v>
       </c>
       <c r="AY12">
-        <v>241.42165099100001</v>
+        <v>15.537749225400001</v>
       </c>
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.25">
@@ -6908,154 +6305,154 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>217.15604346500001</v>
+        <v>14.7362153712</v>
       </c>
       <c r="C13">
-        <v>219.379525519</v>
+        <v>14.811466015200001</v>
       </c>
       <c r="D13">
-        <v>222.51161842499999</v>
+        <v>14.9168233356</v>
       </c>
       <c r="E13">
-        <v>1089.0137342099999</v>
+        <v>33.000208093399998</v>
       </c>
       <c r="F13">
-        <v>216.988353601</v>
+        <v>14.7305245528</v>
       </c>
       <c r="G13">
-        <v>222.134660583</v>
+        <v>14.904182654</v>
       </c>
       <c r="H13">
-        <v>213.54329007800001</v>
+        <v>14.613120477100001</v>
       </c>
       <c r="I13">
-        <v>219.18534654699999</v>
+        <v>14.804909542000001</v>
       </c>
       <c r="J13">
-        <v>222.972586877</v>
+        <v>14.9322666356</v>
       </c>
       <c r="K13">
-        <v>220.81844462399999</v>
+        <v>14.8599611246</v>
       </c>
       <c r="L13">
-        <v>222.57370660999999</v>
+        <v>14.918904336800001</v>
       </c>
       <c r="M13">
-        <v>225.86448397800001</v>
+        <v>15.0287885067</v>
       </c>
       <c r="N13">
-        <v>305.09157208599999</v>
+        <v>17.466870701000001</v>
       </c>
       <c r="O13">
-        <v>210.39271150799999</v>
+        <v>14.5049202517</v>
       </c>
       <c r="P13">
-        <v>190.27767849899999</v>
+        <v>13.7941175324</v>
       </c>
       <c r="Q13">
-        <v>221.196689394</v>
+        <v>14.8726826563</v>
       </c>
       <c r="R13">
-        <v>216.57043349599999</v>
+        <v>14.7163322026</v>
       </c>
       <c r="S13">
-        <v>219.27321386200001</v>
+        <v>14.8078767506</v>
       </c>
       <c r="T13">
-        <v>304.68680564099998</v>
+        <v>17.4552801651</v>
       </c>
       <c r="U13">
-        <v>221.48104760000001</v>
+        <v>14.882239334199999</v>
       </c>
       <c r="V13">
-        <v>222.51214734800001</v>
+        <v>14.9168410646</v>
       </c>
       <c r="W13">
-        <v>219.43977291799999</v>
+        <v>14.813499685</v>
       </c>
       <c r="X13">
-        <v>219.558701633</v>
+        <v>14.8175133418</v>
       </c>
       <c r="Y13">
-        <v>192.561394933</v>
+        <v>13.8766492689</v>
       </c>
       <c r="Z13">
-        <v>225.03151371000001</v>
+        <v>15.0010504202</v>
       </c>
       <c r="AA13">
-        <v>224.89538856600001</v>
+        <v>14.9965125468</v>
       </c>
       <c r="AB13">
-        <v>227.432696779</v>
+        <v>15.0808718839</v>
       </c>
       <c r="AC13">
-        <v>244.214858647</v>
+        <v>15.6273752962</v>
       </c>
       <c r="AD13">
-        <v>223.32231394999999</v>
+        <v>14.943972495600001</v>
       </c>
       <c r="AE13">
-        <v>222.091890232</v>
+        <v>14.902747741000001</v>
       </c>
       <c r="AF13">
-        <v>254.730064072</v>
+        <v>15.960265163000001</v>
       </c>
       <c r="AG13">
-        <v>214.70256877599999</v>
+        <v>14.6527324679</v>
       </c>
       <c r="AH13">
-        <v>222.73664462599999</v>
+        <v>14.924364128000001</v>
       </c>
       <c r="AI13">
-        <v>222.476401286</v>
+        <v>14.9156428385</v>
       </c>
       <c r="AJ13">
-        <v>225.60745481399999</v>
+        <v>15.020234845499999</v>
       </c>
       <c r="AK13">
-        <v>215.33805615899999</v>
+        <v>14.6744013901</v>
       </c>
       <c r="AL13">
-        <v>418.57382839299999</v>
+        <v>20.459076919400001</v>
       </c>
       <c r="AM13">
-        <v>225.076088906</v>
+        <v>15.002536082500001</v>
       </c>
       <c r="AN13">
-        <v>346.07210106600002</v>
+        <v>18.603013225400002</v>
       </c>
       <c r="AO13">
-        <v>223.922729847</v>
+        <v>14.9640479098</v>
       </c>
       <c r="AP13">
-        <v>222.96178444700001</v>
+        <v>14.931904916900001</v>
       </c>
       <c r="AQ13">
-        <v>221.274716407</v>
+        <v>14.8753055904</v>
       </c>
       <c r="AR13">
-        <v>209.17979998800001</v>
+        <v>14.4630494706</v>
       </c>
       <c r="AS13">
-        <v>224.135669243</v>
+        <v>14.9711612523</v>
       </c>
       <c r="AT13">
-        <v>225.09208884200001</v>
+        <v>15.003069313999999</v>
       </c>
       <c r="AU13">
-        <v>221.32539790999999</v>
+        <v>14.877009037800001</v>
       </c>
       <c r="AV13">
-        <v>272.81121667100001</v>
+        <v>16.516997810500001</v>
       </c>
       <c r="AW13">
-        <v>228.363680585</v>
+        <v>15.111706739600001</v>
       </c>
       <c r="AX13">
-        <v>258.54827449700002</v>
+        <v>16.079436386200001</v>
       </c>
       <c r="AY13">
-        <v>257.90664405500002</v>
+        <v>16.0594720976</v>
       </c>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.25">
@@ -7107,40 +6504,40 @@
         <v>1</v>
       </c>
       <c r="B16">
-        <v>463238.31868800003</v>
+        <v>680.61613166899997</v>
       </c>
       <c r="C16">
-        <v>751.60959097499995</v>
+        <v>27.4154991013</v>
       </c>
       <c r="D16">
-        <v>253318.43621399999</v>
+        <v>503.30749667999999</v>
       </c>
       <c r="E16">
-        <v>225.16192024899999</v>
+        <v>15.0053963709</v>
       </c>
       <c r="F16">
-        <v>217.94842754499999</v>
+        <v>14.7630764932</v>
       </c>
       <c r="G16">
-        <v>220.83728584400001</v>
+        <v>14.8605950703</v>
       </c>
       <c r="H16">
-        <v>209.35257706900001</v>
+        <v>14.469021289300001</v>
       </c>
       <c r="I16">
-        <v>225.13704519500001</v>
+        <v>15.0045674778</v>
       </c>
       <c r="J16">
-        <v>240.59839571399999</v>
+        <v>15.5112345</v>
       </c>
       <c r="K16">
-        <v>222.326318077</v>
+        <v>14.9106109223</v>
       </c>
       <c r="L16">
-        <v>222.25831024499999</v>
+        <v>14.908330229900001</v>
       </c>
       <c r="M16">
-        <v>217.15604346500001</v>
+        <v>14.7362153712</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -7148,40 +6545,40 @@
         <v>2</v>
       </c>
       <c r="B17">
-        <v>455743.234773</v>
+        <v>675.08757563200004</v>
       </c>
       <c r="C17">
-        <v>108.02324467</v>
+        <v>10.393423145</v>
       </c>
       <c r="D17">
-        <v>85728.140442100004</v>
+        <v>292.793682381</v>
       </c>
       <c r="E17">
-        <v>223.272319447</v>
+        <v>14.942299670600001</v>
       </c>
       <c r="F17">
-        <v>243.64027141</v>
+        <v>15.608980473100001</v>
       </c>
       <c r="G17">
-        <v>204.25250154299999</v>
+        <v>14.2916934456</v>
       </c>
       <c r="H17">
-        <v>234.36473432</v>
+        <v>15.308975612999999</v>
       </c>
       <c r="I17">
-        <v>407.61050212999999</v>
+        <v>20.189366065600002</v>
       </c>
       <c r="J17">
-        <v>237.80205737399999</v>
+        <v>15.4208319287</v>
       </c>
       <c r="K17">
-        <v>220.37172704899999</v>
+        <v>14.8449226017</v>
       </c>
       <c r="L17">
-        <v>218.268501727</v>
+        <v>14.773912878000001</v>
       </c>
       <c r="M17">
-        <v>219.379525519</v>
+        <v>14.811466015200001</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -7189,40 +6586,40 @@
         <v>3</v>
       </c>
       <c r="B18">
-        <v>134.666955315</v>
+        <v>11.604609227199999</v>
       </c>
       <c r="C18">
-        <v>192.63449582199999</v>
+        <v>13.8792829722</v>
       </c>
       <c r="D18">
-        <v>12942.0762708</v>
+        <v>113.763246573</v>
       </c>
       <c r="E18">
-        <v>193.82306631700001</v>
+        <v>13.922035279299999</v>
       </c>
       <c r="F18">
-        <v>225.161536708</v>
+        <v>15.005383590799999</v>
       </c>
       <c r="G18">
-        <v>220.84721411999999</v>
+        <v>14.860929113599999</v>
       </c>
       <c r="H18">
-        <v>228.14326038499999</v>
+        <v>15.104411950999999</v>
       </c>
       <c r="I18">
-        <v>269.76809101600003</v>
+        <v>16.424618443500002</v>
       </c>
       <c r="J18">
-        <v>222.11749608599999</v>
+        <v>14.9036068147</v>
       </c>
       <c r="K18">
-        <v>270.37099519100002</v>
+        <v>16.442961874000002</v>
       </c>
       <c r="L18">
-        <v>222.982941275</v>
+        <v>14.9326133438</v>
       </c>
       <c r="M18">
-        <v>222.51161842499999</v>
+        <v>14.9168233356</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -7230,40 +6627,40 @@
         <v>4</v>
       </c>
       <c r="B19">
-        <v>451674.86356799997</v>
+        <v>672.06760342099994</v>
       </c>
       <c r="C19">
-        <v>3126.7530051099998</v>
+        <v>55.917376593599997</v>
       </c>
       <c r="D19">
-        <v>19550.009497399999</v>
+        <v>139.82134850400001</v>
       </c>
       <c r="E19">
-        <v>345.67304398099998</v>
+        <v>18.592284528299999</v>
       </c>
       <c r="F19">
-        <v>231.806853289</v>
+        <v>15.2252045401</v>
       </c>
       <c r="G19">
-        <v>222.782435521</v>
+        <v>14.9258981479</v>
       </c>
       <c r="H19">
-        <v>225.155663954</v>
+        <v>15.005187901299999</v>
       </c>
       <c r="I19">
-        <v>220.99145620300001</v>
+        <v>14.8657813856</v>
       </c>
       <c r="J19">
-        <v>393.55536669600002</v>
+        <v>19.838229928499999</v>
       </c>
       <c r="K19">
-        <v>219.025301826</v>
+        <v>14.7995034317</v>
       </c>
       <c r="L19">
-        <v>222.14551078900001</v>
+        <v>14.9045466482</v>
       </c>
       <c r="M19">
-        <v>1089.0137342099999</v>
+        <v>33.000208093399998</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -7271,40 +6668,40 @@
         <v>5</v>
       </c>
       <c r="B20">
-        <v>1672.4028389600001</v>
+        <v>40.895022178300003</v>
       </c>
       <c r="C20">
-        <v>115.2773325</v>
+        <v>10.7367282028</v>
       </c>
       <c r="D20">
-        <v>4568.6121184800004</v>
+        <v>67.591509218799999</v>
       </c>
       <c r="E20">
-        <v>195.00484243899999</v>
+        <v>13.9644134298</v>
       </c>
       <c r="F20">
-        <v>214.19086242200001</v>
+        <v>14.635260927699999</v>
       </c>
       <c r="G20">
-        <v>223.71229342399999</v>
+        <v>14.957014856700001</v>
       </c>
       <c r="H20">
-        <v>564.54606961699994</v>
+        <v>23.760178232000001</v>
       </c>
       <c r="I20">
-        <v>4948.9579453099996</v>
+        <v>70.348830447400005</v>
       </c>
       <c r="J20">
-        <v>219.657559007</v>
+        <v>14.8208487951</v>
       </c>
       <c r="K20">
-        <v>218.11614887600001</v>
+        <v>14.7687558337</v>
       </c>
       <c r="L20">
-        <v>206.13566852599999</v>
+        <v>14.357425553600001</v>
       </c>
       <c r="M20">
-        <v>216.988353601</v>
+        <v>14.7305245528</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -7312,40 +6709,40 @@
         <v>6</v>
       </c>
       <c r="B21">
-        <v>222032.959653</v>
+        <v>471.20373476100002</v>
       </c>
       <c r="C21">
-        <v>21990.107099100002</v>
+        <v>148.29061702999999</v>
       </c>
       <c r="D21">
-        <v>133.72322782699999</v>
+        <v>11.563875986299999</v>
       </c>
       <c r="E21">
-        <v>221.380798476</v>
+        <v>14.8788708737</v>
       </c>
       <c r="F21">
-        <v>222.95988394099999</v>
+        <v>14.9318412777</v>
       </c>
       <c r="G21">
-        <v>223.18742095499999</v>
+        <v>14.939458522800001</v>
       </c>
       <c r="H21">
-        <v>223.01031091300001</v>
+        <v>14.933529754</v>
       </c>
       <c r="I21">
-        <v>224.743269957</v>
+        <v>14.9914398894</v>
       </c>
       <c r="J21">
-        <v>330.32336268099999</v>
+        <v>18.174800210200001</v>
       </c>
       <c r="K21">
-        <v>212.842753426</v>
+        <v>14.5891313458</v>
       </c>
       <c r="L21">
-        <v>240.65511251999999</v>
+        <v>15.513062641499999</v>
       </c>
       <c r="M21">
-        <v>222.134660583</v>
+        <v>14.904182654</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -7353,40 +6750,40 @@
         <v>7</v>
       </c>
       <c r="B22">
-        <v>180426.032767</v>
+        <v>424.76585640399998</v>
       </c>
       <c r="C22">
-        <v>115.294973842</v>
+        <v>10.7375497131</v>
       </c>
       <c r="D22">
-        <v>228.172588225</v>
+        <v>15.105382756699999</v>
       </c>
       <c r="E22">
-        <v>208.68636125399999</v>
+        <v>14.445980799299999</v>
       </c>
       <c r="F22">
-        <v>223.085837844</v>
+        <v>14.9360583101</v>
       </c>
       <c r="G22">
-        <v>206.26209016499999</v>
+        <v>14.3618275357</v>
       </c>
       <c r="H22">
-        <v>239.236715742</v>
+        <v>15.4672788732</v>
       </c>
       <c r="I22">
-        <v>222.56747034599999</v>
+        <v>14.9186953299</v>
       </c>
       <c r="J22">
-        <v>220.89002485500001</v>
+        <v>14.8623694226</v>
       </c>
       <c r="K22">
-        <v>218.898471769</v>
+        <v>14.7952178683</v>
       </c>
       <c r="L22">
-        <v>219.962201515</v>
+        <v>14.831122732800001</v>
       </c>
       <c r="M22">
-        <v>213.54329007800001</v>
+        <v>14.613120477100001</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -7394,40 +6791,40 @@
         <v>8</v>
       </c>
       <c r="B23">
-        <v>121631.724397</v>
+        <v>348.757400491</v>
       </c>
       <c r="C23">
-        <v>171.47844857300001</v>
+        <v>13.0949779906</v>
       </c>
       <c r="D23">
-        <v>4110.9003095799999</v>
+        <v>64.116302993700003</v>
       </c>
       <c r="E23">
-        <v>250.32542526399999</v>
+        <v>15.8216758045</v>
       </c>
       <c r="F23">
-        <v>221.268783103</v>
+        <v>14.875106154299999</v>
       </c>
       <c r="G23">
-        <v>213.03134301599999</v>
+        <v>14.5955932739</v>
       </c>
       <c r="H23">
-        <v>213.80073946600001</v>
+        <v>14.6219266674</v>
       </c>
       <c r="I23">
-        <v>213.56044144399999</v>
+        <v>14.613707313500001</v>
       </c>
       <c r="J23">
-        <v>214.843179986</v>
+        <v>14.657529805099999</v>
       </c>
       <c r="K23">
-        <v>226.85990084700001</v>
+        <v>15.061869101999999</v>
       </c>
       <c r="L23">
-        <v>218.38083576700001</v>
+        <v>14.7777141591</v>
       </c>
       <c r="M23">
-        <v>219.18534654699999</v>
+        <v>14.804909542000001</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -7435,40 +6832,40 @@
         <v>9</v>
       </c>
       <c r="B24">
-        <v>2038.2902099200001</v>
+        <v>45.147427500600003</v>
       </c>
       <c r="C24">
-        <v>197.65131870900001</v>
+        <v>14.058851969799999</v>
       </c>
       <c r="D24">
-        <v>225.16192024899999</v>
+        <v>15.0053963709</v>
       </c>
       <c r="E24">
-        <v>212.91830363299999</v>
+        <v>14.5917203795</v>
       </c>
       <c r="F24">
-        <v>152.60465102800001</v>
+        <v>12.353325504800001</v>
       </c>
       <c r="G24">
-        <v>216.624149676</v>
+        <v>14.718157142700001</v>
       </c>
       <c r="H24">
-        <v>220.18878110700001</v>
+        <v>14.838759419400001</v>
       </c>
       <c r="I24">
-        <v>198.35249931000001</v>
+        <v>14.083767227199999</v>
       </c>
       <c r="J24">
-        <v>227.583254963</v>
+        <v>15.085862751700001</v>
       </c>
       <c r="K24">
-        <v>226.928146467</v>
+        <v>15.0641344413</v>
       </c>
       <c r="L24">
-        <v>216.10141349</v>
+        <v>14.7003882088</v>
       </c>
       <c r="M24">
-        <v>222.972586877</v>
+        <v>14.9322666356</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -7476,40 +6873,40 @@
         <v>10</v>
       </c>
       <c r="B25">
-        <v>193959.98298599999</v>
+        <v>440.40888159299999</v>
       </c>
       <c r="C25">
-        <v>21615.785297900002</v>
+        <v>147.023077433</v>
       </c>
       <c r="D25">
-        <v>131.51286921900001</v>
+        <v>11.4679060521</v>
       </c>
       <c r="E25">
-        <v>218.48518964100001</v>
+        <v>14.7812445227</v>
       </c>
       <c r="F25">
-        <v>223.38920289399999</v>
+        <v>14.9462103188</v>
       </c>
       <c r="G25">
-        <v>220.08297452400001</v>
+        <v>14.835193781099999</v>
       </c>
       <c r="H25">
-        <v>222.77582720800001</v>
+        <v>14.925676775499999</v>
       </c>
       <c r="I25">
-        <v>218.729161987</v>
+        <v>14.789494987599999</v>
       </c>
       <c r="J25">
-        <v>225.52381435800001</v>
+        <v>15.017450328100001</v>
       </c>
       <c r="K25">
-        <v>219.723905718</v>
+        <v>14.823086915999999</v>
       </c>
       <c r="L25">
-        <v>269.91651385699998</v>
+        <v>16.429136126300001</v>
       </c>
       <c r="M25">
-        <v>220.81844462399999</v>
+        <v>14.8599611246</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -7517,40 +6914,40 @@
         <v>11</v>
       </c>
       <c r="B26">
-        <v>49047.5254049</v>
+        <v>221.466759142</v>
       </c>
       <c r="C26">
-        <v>63097.194867600003</v>
+        <v>251.19155015199999</v>
       </c>
       <c r="D26">
-        <v>108212.444841</v>
+        <v>328.95660023900001</v>
       </c>
       <c r="E26">
-        <v>220.759208425</v>
+        <v>14.857967843000001</v>
       </c>
       <c r="F26">
-        <v>266.37668848099997</v>
+        <v>16.321050471100001</v>
       </c>
       <c r="G26">
-        <v>243.02655443800001</v>
+        <v>15.5893089788</v>
       </c>
       <c r="H26">
-        <v>216.44137026999999</v>
+        <v>14.711946515299999</v>
       </c>
       <c r="I26">
-        <v>210.051811214</v>
+        <v>14.4931642927</v>
       </c>
       <c r="J26">
-        <v>207.343995654</v>
+        <v>14.399444282799999</v>
       </c>
       <c r="K26">
-        <v>219.934839614</v>
+        <v>14.830200255399999</v>
       </c>
       <c r="L26">
-        <v>221.49328342300001</v>
+        <v>14.882650416600001</v>
       </c>
       <c r="M26">
-        <v>222.57370660999999</v>
+        <v>14.918904336800001</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -7558,40 +6955,40 @@
         <v>12</v>
       </c>
       <c r="B27">
-        <v>506463.60804700002</v>
+        <v>711.66256614099996</v>
       </c>
       <c r="C27">
-        <v>8011.4479006399997</v>
+        <v>89.506691932199999</v>
       </c>
       <c r="D27">
-        <v>225.16192024899999</v>
+        <v>15.0053963709</v>
       </c>
       <c r="E27">
-        <v>246.31033420099999</v>
+        <v>15.6942771162</v>
       </c>
       <c r="F27">
-        <v>215.81794016399999</v>
+        <v>14.6907433496</v>
       </c>
       <c r="G27">
-        <v>236.17737932399999</v>
+        <v>15.368063616600001</v>
       </c>
       <c r="H27">
-        <v>212.67472258800001</v>
+        <v>14.583371441100001</v>
       </c>
       <c r="I27">
-        <v>221.270741622</v>
+        <v>14.8751719863</v>
       </c>
       <c r="J27">
-        <v>301.58414467099999</v>
+        <v>17.366178182599999</v>
       </c>
       <c r="K27">
-        <v>238.23506004999999</v>
+        <v>15.4348650804</v>
       </c>
       <c r="L27">
-        <v>234.52392379899999</v>
+        <v>15.314173950900001</v>
       </c>
       <c r="M27">
-        <v>225.86448397800001</v>
+        <v>15.0287885067</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -7599,40 +6996,40 @@
         <v>13</v>
       </c>
       <c r="B28">
-        <v>40015.586386800001</v>
+        <v>200.038962172</v>
       </c>
       <c r="C28">
-        <v>225.16192024899999</v>
+        <v>15.0053963709</v>
       </c>
       <c r="D28">
-        <v>119.811073674</v>
+        <v>10.945824485799999</v>
       </c>
       <c r="E28">
-        <v>213.575952895</v>
+        <v>14.6142380197</v>
       </c>
       <c r="F28">
-        <v>221.846940953</v>
+        <v>14.8945272148</v>
       </c>
       <c r="G28">
-        <v>259.69410459800002</v>
+        <v>16.115027291299999</v>
       </c>
       <c r="H28">
-        <v>225.19310964499999</v>
+        <v>15.0064356076</v>
       </c>
       <c r="I28">
-        <v>211.04822465300001</v>
+        <v>14.5274989125</v>
       </c>
       <c r="J28">
-        <v>228.702776997</v>
+        <v>15.122922237399999</v>
       </c>
       <c r="K28">
-        <v>225.160985297</v>
+        <v>15.005365217</v>
       </c>
       <c r="L28">
-        <v>222.55500176499999</v>
+        <v>14.918277439600001</v>
       </c>
       <c r="M28">
-        <v>305.09157208599999</v>
+        <v>17.466870701000001</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -7640,40 +7037,40 @@
         <v>14</v>
       </c>
       <c r="B29">
-        <v>2595.0583107399998</v>
+        <v>50.941714838999999</v>
       </c>
       <c r="C29">
-        <v>6940.3488967699996</v>
+        <v>83.308756423099993</v>
       </c>
       <c r="D29">
-        <v>225.16192024899999</v>
+        <v>15.0053963709</v>
       </c>
       <c r="E29">
-        <v>213.91998489400001</v>
+        <v>14.6260037226</v>
       </c>
       <c r="F29">
-        <v>210.98782349499999</v>
+        <v>14.5254199077</v>
       </c>
       <c r="G29">
-        <v>214.71616744100001</v>
+        <v>14.653196492299999</v>
       </c>
       <c r="H29">
-        <v>223.96991180699999</v>
+        <v>14.9656243374</v>
       </c>
       <c r="I29">
-        <v>434.91146766499998</v>
+        <v>20.854531106300001</v>
       </c>
       <c r="J29">
-        <v>221.648793305</v>
+        <v>14.887874035799999</v>
       </c>
       <c r="K29">
-        <v>214.279352805</v>
+        <v>14.638283806700001</v>
       </c>
       <c r="L29">
-        <v>230.13197400199999</v>
+        <v>15.1701013181</v>
       </c>
       <c r="M29">
-        <v>210.39271150799999</v>
+        <v>14.5049202517</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -7681,40 +7078,40 @@
         <v>15</v>
       </c>
       <c r="B30">
-        <v>164.138564178</v>
+        <v>12.811657354799999</v>
       </c>
       <c r="C30">
-        <v>24126.318456000001</v>
+        <v>155.326489872</v>
       </c>
       <c r="D30">
-        <v>2491.5407286499999</v>
+        <v>49.915335605899998</v>
       </c>
       <c r="E30">
-        <v>223.54715328699999</v>
+        <v>14.951493346399999</v>
       </c>
       <c r="F30">
-        <v>230.18336162200001</v>
+        <v>15.1717949374</v>
       </c>
       <c r="G30">
-        <v>222.80194709400001</v>
+        <v>14.9265517483</v>
       </c>
       <c r="H30">
-        <v>205.54427670000001</v>
+        <v>14.3368154309</v>
       </c>
       <c r="I30">
-        <v>199.18701262600001</v>
+        <v>14.113362909899999</v>
       </c>
       <c r="J30">
-        <v>219.50686572999999</v>
+        <v>14.8157640954</v>
       </c>
       <c r="K30">
-        <v>220.52865974299999</v>
+        <v>14.8502073973</v>
       </c>
       <c r="L30">
-        <v>218.26184970700001</v>
+        <v>14.7736877491</v>
       </c>
       <c r="M30">
-        <v>190.27767849899999</v>
+        <v>13.7941175324</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -7722,40 +7119,40 @@
         <v>16</v>
       </c>
       <c r="B31">
-        <v>352854.58777699998</v>
+        <v>594.01564607099999</v>
       </c>
       <c r="C31">
-        <v>102.742225086</v>
+        <v>10.1361839509</v>
       </c>
       <c r="D31">
-        <v>150.965386986</v>
+        <v>12.2867972632</v>
       </c>
       <c r="E31">
-        <v>237.714171851</v>
+        <v>15.417982093999999</v>
       </c>
       <c r="F31">
-        <v>214.824780261</v>
+        <v>14.656902137299999</v>
       </c>
       <c r="G31">
-        <v>225.171426978</v>
+        <v>15.0057131446</v>
       </c>
       <c r="H31">
-        <v>197.87177417800001</v>
+        <v>14.066690235399999</v>
       </c>
       <c r="I31">
-        <v>259.52319087799998</v>
+        <v>16.1097234886</v>
       </c>
       <c r="J31">
-        <v>189.39714121200001</v>
+        <v>13.7621633914</v>
       </c>
       <c r="K31">
-        <v>221.66918550299999</v>
+        <v>14.8885588793</v>
       </c>
       <c r="L31">
-        <v>205.45075270699999</v>
+        <v>14.3335533873</v>
       </c>
       <c r="M31">
-        <v>221.196689394</v>
+        <v>14.8726826563</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -7763,40 +7160,40 @@
         <v>17</v>
       </c>
       <c r="B32">
-        <v>815.16752990400005</v>
+        <v>28.551138854800001</v>
       </c>
       <c r="C32">
-        <v>137170.34112699999</v>
+        <v>370.36514567</v>
       </c>
       <c r="D32">
-        <v>7074.0378027500001</v>
+        <v>84.107299342900006</v>
       </c>
       <c r="E32">
-        <v>207.16619348</v>
+        <v>14.393269033799999</v>
       </c>
       <c r="F32">
-        <v>206.515399003</v>
+        <v>14.3706436531</v>
       </c>
       <c r="G32">
-        <v>205.01688720499999</v>
+        <v>14.3184107779</v>
       </c>
       <c r="H32">
-        <v>220.01558864099999</v>
+        <v>14.832922457900001</v>
       </c>
       <c r="I32">
-        <v>255.72031815700001</v>
+        <v>15.991257554000001</v>
       </c>
       <c r="J32">
-        <v>218.48010695900001</v>
+        <v>14.781072591599999</v>
       </c>
       <c r="K32">
-        <v>459.85265677299998</v>
+        <v>21.444175357700001</v>
       </c>
       <c r="L32">
-        <v>250.11722531999999</v>
+        <v>15.8150948565</v>
       </c>
       <c r="M32">
-        <v>216.57043349599999</v>
+        <v>14.7163322026</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -7804,40 +7201,40 @@
         <v>18</v>
       </c>
       <c r="B33">
-        <v>388.99818899600001</v>
+        <v>19.723037012500001</v>
       </c>
       <c r="C33">
-        <v>7687.9855336600003</v>
+        <v>87.681158373200006</v>
       </c>
       <c r="D33">
-        <v>1236.3616694899999</v>
+        <v>35.161934950899997</v>
       </c>
       <c r="E33">
-        <v>215.28459683200001</v>
+        <v>14.6725797606</v>
       </c>
       <c r="F33">
-        <v>224.48643697700001</v>
+        <v>14.982871453</v>
       </c>
       <c r="G33">
-        <v>219.61178352900001</v>
+        <v>14.8193044212</v>
       </c>
       <c r="H33">
-        <v>220.763672211</v>
+        <v>14.8581180575</v>
       </c>
       <c r="I33">
-        <v>220.81447711499999</v>
+        <v>14.8598276274</v>
       </c>
       <c r="J33">
-        <v>212.91488131700001</v>
+        <v>14.591603109899999</v>
       </c>
       <c r="K33">
-        <v>223.157336018</v>
+        <v>14.9384515937</v>
       </c>
       <c r="L33">
-        <v>202.85325345800001</v>
+        <v>14.2426561237</v>
       </c>
       <c r="M33">
-        <v>219.27321386200001</v>
+        <v>14.8078767506</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -7845,40 +7242,40 @@
         <v>19</v>
       </c>
       <c r="B34">
-        <v>225.16192024899999</v>
+        <v>15.0053963709</v>
       </c>
       <c r="C34">
-        <v>351.70768232900002</v>
+        <v>18.7538711292</v>
       </c>
       <c r="D34">
-        <v>137.304430846</v>
+        <v>11.7176973355</v>
       </c>
       <c r="E34">
-        <v>378.767518913</v>
+        <v>19.4619505424</v>
       </c>
       <c r="F34">
-        <v>214.52748112899999</v>
+        <v>14.646756676100001</v>
       </c>
       <c r="G34">
-        <v>219.94052189600001</v>
+        <v>14.8303918322</v>
       </c>
       <c r="H34">
-        <v>215.95664767</v>
+        <v>14.695463506499999</v>
       </c>
       <c r="I34">
-        <v>223.301746009</v>
+        <v>14.943284311299999</v>
       </c>
       <c r="J34">
-        <v>259.15466818099998</v>
+        <v>16.098281528800001</v>
       </c>
       <c r="K34">
-        <v>222.06649112599999</v>
+        <v>14.901895554799999</v>
       </c>
       <c r="L34">
-        <v>225.137502993</v>
+        <v>15.004582733099999</v>
       </c>
       <c r="M34">
-        <v>304.68680564099998</v>
+        <v>17.4552801651</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -7886,40 +7283,40 @@
         <v>20</v>
       </c>
       <c r="B35">
-        <v>130.724800147</v>
+        <v>11.433494660299999</v>
       </c>
       <c r="C35">
-        <v>2379.3518019799999</v>
+        <v>48.778599836200002</v>
       </c>
       <c r="D35">
-        <v>282.098675356</v>
+        <v>16.795793382700001</v>
       </c>
       <c r="E35">
-        <v>224.500665607</v>
+        <v>14.983346275300001</v>
       </c>
       <c r="F35">
-        <v>212.337896793</v>
+        <v>14.571818582200001</v>
       </c>
       <c r="G35">
-        <v>212.84021252299999</v>
+        <v>14.5890442635</v>
       </c>
       <c r="H35">
-        <v>229.65349179899999</v>
+        <v>15.154322544999999</v>
       </c>
       <c r="I35">
-        <v>220.792262886</v>
+        <v>14.8590801494</v>
       </c>
       <c r="J35">
-        <v>225.829923683</v>
+        <v>15.027638659599999</v>
       </c>
       <c r="K35">
-        <v>222.441617662</v>
+        <v>14.914476781399999</v>
       </c>
       <c r="L35">
-        <v>229.610639174</v>
+        <v>15.1529086044</v>
       </c>
       <c r="M35">
-        <v>221.48104760000001</v>
+        <v>14.882239334199999</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -7927,40 +7324,40 @@
         <v>21</v>
       </c>
       <c r="B36">
-        <v>169104.15583199999</v>
+        <v>411.22275694799998</v>
       </c>
       <c r="C36">
-        <v>259.51502964700001</v>
+        <v>16.109470185199999</v>
       </c>
       <c r="D36">
-        <v>4701.8106425100004</v>
+        <v>68.569750200100003</v>
       </c>
       <c r="E36">
-        <v>221.49274438699999</v>
+        <v>14.8826323071</v>
       </c>
       <c r="F36">
-        <v>2544.05556209</v>
+        <v>50.438631643699999</v>
       </c>
       <c r="G36">
-        <v>148.216787436</v>
+        <v>12.174431709</v>
       </c>
       <c r="H36">
-        <v>303.39618064699999</v>
+        <v>17.4182714598</v>
       </c>
       <c r="I36">
-        <v>232.41064642500001</v>
+        <v>15.2450203813</v>
       </c>
       <c r="J36">
-        <v>225.28318640000001</v>
+        <v>15.009436578400001</v>
       </c>
       <c r="K36">
-        <v>219.15672669099999</v>
+        <v>14.803942944099999</v>
       </c>
       <c r="L36">
-        <v>218.74528465200001</v>
+        <v>14.790040049</v>
       </c>
       <c r="M36">
-        <v>222.51214734800001</v>
+        <v>14.9168410646</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -7968,40 +7365,40 @@
         <v>22</v>
       </c>
       <c r="B37">
-        <v>322128.81872899999</v>
+        <v>567.56393360499999</v>
       </c>
       <c r="C37">
-        <v>199.801792038</v>
+        <v>14.1351261769</v>
       </c>
       <c r="D37">
-        <v>169.07149315500001</v>
+        <v>13.002749445999999</v>
       </c>
       <c r="E37">
-        <v>265.81001780700001</v>
+        <v>16.3036811122</v>
       </c>
       <c r="F37">
-        <v>215.93856029400001</v>
+        <v>14.6948480868</v>
       </c>
       <c r="G37">
-        <v>45823.761431899999</v>
+        <v>214.06485333200001</v>
       </c>
       <c r="H37">
-        <v>211.555275572</v>
+        <v>14.5449398614</v>
       </c>
       <c r="I37">
-        <v>305.69796219</v>
+        <v>17.484220377</v>
       </c>
       <c r="J37">
-        <v>219.024378353</v>
+        <v>14.799472232199999</v>
       </c>
       <c r="K37">
-        <v>221.30002764100001</v>
+        <v>14.8761563463</v>
       </c>
       <c r="L37">
-        <v>233.31653064100001</v>
+        <v>15.2747023094</v>
       </c>
       <c r="M37">
-        <v>219.43977291799999</v>
+        <v>14.813499685</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -8009,40 +7406,40 @@
         <v>23</v>
       </c>
       <c r="B38">
-        <v>243339.30226600001</v>
+        <v>493.29433634100002</v>
       </c>
       <c r="C38">
-        <v>225.226167756</v>
+        <v>15.0075370316</v>
       </c>
       <c r="D38">
-        <v>1040.4690845499999</v>
+        <v>32.256303020499999</v>
       </c>
       <c r="E38">
-        <v>222.73594446499999</v>
+        <v>14.924340671</v>
       </c>
       <c r="F38">
-        <v>223.14864187000001</v>
+        <v>14.938160591899999</v>
       </c>
       <c r="G38">
-        <v>221.823888751</v>
+        <v>14.893753346700001</v>
       </c>
       <c r="H38">
-        <v>225.149931759</v>
+        <v>15.004996893</v>
       </c>
       <c r="I38">
-        <v>224.834506901</v>
+        <v>14.994482548600001</v>
       </c>
       <c r="J38">
-        <v>218.75799361700001</v>
+        <v>14.7904696889</v>
       </c>
       <c r="K38">
-        <v>238.008622143</v>
+        <v>15.4275280633</v>
       </c>
       <c r="L38">
-        <v>231.142124258</v>
+        <v>15.203358979400001</v>
       </c>
       <c r="M38">
-        <v>219.558701633</v>
+        <v>14.8175133418</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -8050,40 +7447,40 @@
         <v>24</v>
       </c>
       <c r="B39">
-        <v>1022.83282472</v>
+        <v>31.9817576865</v>
       </c>
       <c r="C39">
-        <v>38388.3446635</v>
+        <v>195.929437971</v>
       </c>
       <c r="D39">
-        <v>143.24099668700001</v>
+        <v>11.968333078900001</v>
       </c>
       <c r="E39">
-        <v>228.6148292</v>
+        <v>15.120014193099999</v>
       </c>
       <c r="F39">
-        <v>218.80387543000001</v>
+        <v>14.792020667599999</v>
       </c>
       <c r="G39">
-        <v>221.94970676400001</v>
+        <v>14.8979765997</v>
       </c>
       <c r="H39">
-        <v>220.36746712199999</v>
+        <v>14.84477912</v>
       </c>
       <c r="I39">
-        <v>206.415862339</v>
+        <v>14.367180041299999</v>
       </c>
       <c r="J39">
-        <v>427.765108607</v>
+        <v>20.6824831345</v>
       </c>
       <c r="K39">
-        <v>227.26616047799999</v>
+        <v>15.075349431399999</v>
       </c>
       <c r="L39">
-        <v>211.130060418</v>
+        <v>14.5303152209</v>
       </c>
       <c r="M39">
-        <v>192.561394933</v>
+        <v>13.8766492689</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -8091,40 +7488,40 @@
         <v>25</v>
       </c>
       <c r="B40">
-        <v>23606.347731900001</v>
+        <v>153.64357367599999</v>
       </c>
       <c r="C40">
-        <v>187.20154091699999</v>
+        <v>13.682161412499999</v>
       </c>
       <c r="D40">
-        <v>3486.6811697399999</v>
+        <v>59.048125878299999</v>
       </c>
       <c r="E40">
-        <v>198.30474592900001</v>
+        <v>14.082071791100001</v>
       </c>
       <c r="F40">
-        <v>214.54851907400001</v>
+        <v>14.647474836100001</v>
       </c>
       <c r="G40">
-        <v>224.02997849600001</v>
+        <v>14.967631024799999</v>
       </c>
       <c r="H40">
-        <v>219.89681067500001</v>
+        <v>14.828918054800001</v>
       </c>
       <c r="I40">
-        <v>217.61614628699999</v>
+        <v>14.7518184061</v>
       </c>
       <c r="J40">
-        <v>221.45764397100001</v>
+        <v>14.8814530195</v>
       </c>
       <c r="K40">
-        <v>220.697437224</v>
+        <v>14.855888974499999</v>
       </c>
       <c r="L40">
-        <v>223.852884139</v>
+        <v>14.9617139439</v>
       </c>
       <c r="M40">
-        <v>225.03151371000001</v>
+        <v>15.0010504202</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -8132,40 +7529,40 @@
         <v>26</v>
       </c>
       <c r="B41">
-        <v>326322.07946400001</v>
+        <v>571.24607610400005</v>
       </c>
       <c r="C41">
-        <v>17563.183664100001</v>
+        <v>132.52616218700001</v>
       </c>
       <c r="D41">
-        <v>19378.089240500001</v>
+        <v>139.20520550800001</v>
       </c>
       <c r="E41">
-        <v>203.22474749099999</v>
+        <v>14.255691757699999</v>
       </c>
       <c r="F41">
-        <v>224.984887246</v>
+        <v>14.9994962331</v>
       </c>
       <c r="G41">
-        <v>217.62988944599999</v>
+        <v>14.752284211099999</v>
       </c>
       <c r="H41">
-        <v>216.72830833500001</v>
+        <v>14.721695158299999</v>
       </c>
       <c r="I41">
-        <v>215.83141986000001</v>
+        <v>14.6912021244</v>
       </c>
       <c r="J41">
-        <v>222.47459794100001</v>
+        <v>14.915582386900001</v>
       </c>
       <c r="K41">
-        <v>265.28404527200001</v>
+        <v>16.2875426407</v>
       </c>
       <c r="L41">
-        <v>1118.48597752</v>
+        <v>33.443773374400003</v>
       </c>
       <c r="M41">
-        <v>224.89538856600001</v>
+        <v>14.9965125468</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -8173,40 +7570,40 @@
         <v>27</v>
       </c>
       <c r="B42">
-        <v>297380.53109200002</v>
+        <v>545.32607776600003</v>
       </c>
       <c r="C42">
-        <v>830.92800849100001</v>
+        <v>28.8258219049</v>
       </c>
       <c r="D42">
-        <v>206.42509194100001</v>
+        <v>14.367501242099999</v>
       </c>
       <c r="E42">
-        <v>220.59072243099999</v>
+        <v>14.8522968739</v>
       </c>
       <c r="F42">
-        <v>223.928744771</v>
+        <v>14.9642488876</v>
       </c>
       <c r="G42">
-        <v>236.74269278</v>
+        <v>15.386445098899999</v>
       </c>
       <c r="H42">
-        <v>440.01589368200001</v>
+        <v>20.976555810800001</v>
       </c>
       <c r="I42">
-        <v>216.10717536199999</v>
+        <v>14.7005841844</v>
       </c>
       <c r="J42">
-        <v>219.43712456200001</v>
+        <v>14.813410294800001</v>
       </c>
       <c r="K42">
-        <v>210.690118415</v>
+        <v>14.5151685631</v>
       </c>
       <c r="L42">
-        <v>214.55173402400001</v>
+        <v>14.6475845799</v>
       </c>
       <c r="M42">
-        <v>227.432696779</v>
+        <v>15.0808718839</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -8214,40 +7611,40 @@
         <v>28</v>
       </c>
       <c r="B43">
-        <v>13157.992950100001</v>
+        <v>114.708295036</v>
       </c>
       <c r="C43">
-        <v>48527.262000900002</v>
+        <v>220.28904194500001</v>
       </c>
       <c r="D43">
-        <v>225.16192024899999</v>
+        <v>15.0053963709</v>
       </c>
       <c r="E43">
-        <v>206.52026357599999</v>
+        <v>14.370812905899999</v>
       </c>
       <c r="F43">
-        <v>186.031920246</v>
+        <v>13.639351899799999</v>
       </c>
       <c r="G43">
-        <v>220.936877471</v>
+        <v>14.863945555300001</v>
       </c>
       <c r="H43">
-        <v>220.81022560700001</v>
+        <v>14.859684572900001</v>
       </c>
       <c r="I43">
-        <v>365.853065915</v>
+        <v>19.1272859004</v>
       </c>
       <c r="J43">
-        <v>214.30692789</v>
+        <v>14.639225658799999</v>
       </c>
       <c r="K43">
-        <v>223.11989306500001</v>
+        <v>14.9371983004</v>
       </c>
       <c r="L43">
-        <v>221.775737975</v>
+        <v>14.8921367834</v>
       </c>
       <c r="M43">
-        <v>244.214858647</v>
+        <v>15.6273752962</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -8255,40 +7652,40 @@
         <v>29</v>
       </c>
       <c r="B44">
-        <v>173530.71387599999</v>
+        <v>416.57017881299998</v>
       </c>
       <c r="C44">
-        <v>225.16192024899999</v>
+        <v>15.0053963709</v>
       </c>
       <c r="D44">
-        <v>2962.36555021</v>
+        <v>54.427617531999999</v>
       </c>
       <c r="E44">
-        <v>217.96998667400001</v>
+        <v>14.763806645800001</v>
       </c>
       <c r="F44">
-        <v>220.87584465200001</v>
+        <v>14.861892364399999</v>
       </c>
       <c r="G44">
-        <v>222.51366824600001</v>
+        <v>14.916892043800001</v>
       </c>
       <c r="H44">
-        <v>224.68260858799999</v>
+        <v>14.9894165526</v>
       </c>
       <c r="I44">
-        <v>283.863285797</v>
+        <v>16.848242810399999</v>
       </c>
       <c r="J44">
-        <v>222.77219835400001</v>
+        <v>14.925555210900001</v>
       </c>
       <c r="K44">
-        <v>267.78037165699999</v>
+        <v>16.363996200700001</v>
       </c>
       <c r="L44">
-        <v>238.369363255</v>
+        <v>15.439215111399999</v>
       </c>
       <c r="M44">
-        <v>223.32231394999999</v>
+        <v>14.943972495600001</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -8296,40 +7693,40 @@
         <v>30</v>
       </c>
       <c r="B45">
-        <v>103938.132245</v>
+        <v>322.39437378000002</v>
       </c>
       <c r="C45">
-        <v>1174.7879772199999</v>
+        <v>34.275180192400001</v>
       </c>
       <c r="D45">
-        <v>5518.75686847</v>
+        <v>74.288336018999999</v>
       </c>
       <c r="E45">
-        <v>219.37530346899999</v>
+        <v>14.811323488099999</v>
       </c>
       <c r="F45">
-        <v>547.24857938599996</v>
+        <v>23.393344766999999</v>
       </c>
       <c r="G45">
-        <v>223.826600601</v>
+        <v>14.960835558299999</v>
       </c>
       <c r="H45">
-        <v>235.81283551600001</v>
+        <v>15.356198602399999</v>
       </c>
       <c r="I45">
-        <v>221.01945373999999</v>
+        <v>14.866723033</v>
       </c>
       <c r="J45">
-        <v>219.325782124</v>
+        <v>14.8096516544</v>
       </c>
       <c r="K45">
-        <v>222.31223293299999</v>
+        <v>14.910138595399999</v>
       </c>
       <c r="L45">
-        <v>220.498047318</v>
+        <v>14.849176654500001</v>
       </c>
       <c r="M45">
-        <v>222.091890232</v>
+        <v>14.902747741000001</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -8337,40 +7734,40 @@
         <v>31</v>
       </c>
       <c r="B46">
-        <v>96351.067067800002</v>
+        <v>310.40468274099999</v>
       </c>
       <c r="C46">
-        <v>643.29789994600003</v>
+        <v>25.363317999500001</v>
       </c>
       <c r="D46">
-        <v>225.16192024899999</v>
+        <v>15.0053963709</v>
       </c>
       <c r="E46">
-        <v>225.16192024899999</v>
+        <v>15.0053963709</v>
       </c>
       <c r="F46">
-        <v>225.16224307499999</v>
+        <v>15.0054071279</v>
       </c>
       <c r="G46">
-        <v>249.93287377199999</v>
+        <v>15.809265440600001</v>
       </c>
       <c r="H46">
-        <v>1931.4123764999999</v>
+        <v>43.947836994600003</v>
       </c>
       <c r="I46">
-        <v>224.197915814</v>
+        <v>14.9732399905</v>
       </c>
       <c r="J46">
-        <v>222.60839022499999</v>
+        <v>14.920066696399999</v>
       </c>
       <c r="K46">
-        <v>222.173125357</v>
+        <v>14.905473000100001</v>
       </c>
       <c r="L46">
-        <v>238.01322134200001</v>
+        <v>15.4276771207</v>
       </c>
       <c r="M46">
-        <v>254.730064072</v>
+        <v>15.960265163000001</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -8378,40 +7775,40 @@
         <v>32</v>
       </c>
       <c r="B47">
-        <v>151.196522668</v>
+        <v>12.2961995213</v>
       </c>
       <c r="C47">
-        <v>128.853587686</v>
+        <v>11.351369418999999</v>
       </c>
       <c r="D47">
-        <v>87406.213197399993</v>
+        <v>295.645418022</v>
       </c>
       <c r="E47">
-        <v>335.684317599</v>
+        <v>18.321689812900001</v>
       </c>
       <c r="F47">
-        <v>280.99648743300003</v>
+        <v>16.762949842800001</v>
       </c>
       <c r="G47">
-        <v>221.35819111800001</v>
+        <v>14.8781111408</v>
       </c>
       <c r="H47">
-        <v>220.35336565899999</v>
+        <v>14.844304148699999</v>
       </c>
       <c r="I47">
-        <v>219.80265909799999</v>
+        <v>14.8257431213</v>
       </c>
       <c r="J47">
-        <v>258.68641964300002</v>
+        <v>16.083731521099999</v>
       </c>
       <c r="K47">
-        <v>225.03223037999999</v>
+        <v>15.0010743075</v>
       </c>
       <c r="L47">
-        <v>214.70075108</v>
+        <v>14.6526704419</v>
       </c>
       <c r="M47">
-        <v>214.70256877599999</v>
+        <v>14.6527324679</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -8419,40 +7816,40 @@
         <v>33</v>
       </c>
       <c r="B48">
-        <v>62175.505197999999</v>
+        <v>249.35016582700001</v>
       </c>
       <c r="C48">
-        <v>191.07712410900001</v>
+        <v>13.823064931799999</v>
       </c>
       <c r="D48">
-        <v>218.18388559100001</v>
+        <v>14.7710488995</v>
       </c>
       <c r="E48">
-        <v>202.49008461400001</v>
+        <v>14.229901075300001</v>
       </c>
       <c r="F48">
-        <v>214.634707163</v>
+        <v>14.6504166208</v>
       </c>
       <c r="G48">
-        <v>226.03938344900001</v>
+        <v>15.0346061953</v>
       </c>
       <c r="H48">
-        <v>300.77259659399999</v>
+        <v>17.342796677399999</v>
       </c>
       <c r="I48">
-        <v>217.37826651200001</v>
+        <v>14.7437534743</v>
       </c>
       <c r="J48">
-        <v>220.529684178</v>
+        <v>14.850241889499999</v>
       </c>
       <c r="K48">
-        <v>224.58856566399999</v>
+        <v>14.986279246800001</v>
       </c>
       <c r="L48">
-        <v>217.28466986199999</v>
+        <v>14.7405790206</v>
       </c>
       <c r="M48">
-        <v>222.73664462599999</v>
+        <v>14.924364128000001</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -8460,40 +7857,40 @@
         <v>34</v>
       </c>
       <c r="B49">
-        <v>10557.8072691</v>
+        <v>102.751191084</v>
       </c>
       <c r="C49">
-        <v>123.912004396</v>
+        <v>11.131576905199999</v>
       </c>
       <c r="D49">
-        <v>169.339217889</v>
+        <v>13.0130403015</v>
       </c>
       <c r="E49">
-        <v>203.014592835</v>
+        <v>14.2483189477</v>
       </c>
       <c r="F49">
-        <v>848.14636940499997</v>
+        <v>29.122952621700001</v>
       </c>
       <c r="G49">
-        <v>227.09393412399999</v>
+        <v>15.0696361643</v>
       </c>
       <c r="H49">
-        <v>197.375338548</v>
+        <v>14.049033367</v>
       </c>
       <c r="I49">
-        <v>220.33187248900001</v>
+        <v>14.8435801776</v>
       </c>
       <c r="J49">
-        <v>227.73457504999999</v>
+        <v>15.090877212700001</v>
       </c>
       <c r="K49">
-        <v>223.04386049600001</v>
+        <v>14.9346530089</v>
       </c>
       <c r="L49">
-        <v>230.94999772599999</v>
+        <v>15.1970391105</v>
       </c>
       <c r="M49">
-        <v>222.476401286</v>
+        <v>14.9156428385</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -8501,40 +7898,40 @@
         <v>35</v>
       </c>
       <c r="B50">
-        <v>190765.814167</v>
+        <v>436.76746006000002</v>
       </c>
       <c r="C50">
-        <v>173.396863204</v>
+        <v>13.1680242711</v>
       </c>
       <c r="D50">
-        <v>46080.933298800002</v>
+        <v>214.66469970399999</v>
       </c>
       <c r="E50">
-        <v>225.16192024899999</v>
+        <v>15.0053963709</v>
       </c>
       <c r="F50">
-        <v>214.99690217</v>
+        <v>14.6627726631</v>
       </c>
       <c r="G50">
-        <v>221.07795227899999</v>
+        <v>14.868690335</v>
       </c>
       <c r="H50">
-        <v>190.46580100400001</v>
+        <v>13.800934787299999</v>
       </c>
       <c r="I50">
-        <v>215.71996100199999</v>
+        <v>14.6874082466</v>
       </c>
       <c r="J50">
-        <v>208.46878034400001</v>
+        <v>14.4384479894</v>
       </c>
       <c r="K50">
-        <v>222.301190679</v>
+        <v>14.909768297299999</v>
       </c>
       <c r="L50">
-        <v>229.992264226</v>
+        <v>15.165495845000001</v>
       </c>
       <c r="M50">
-        <v>225.60745481399999</v>
+        <v>15.020234845499999</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -8542,40 +7939,40 @@
         <v>36</v>
       </c>
       <c r="B51">
-        <v>41143.3442221</v>
+        <v>202.83822179800001</v>
       </c>
       <c r="C51">
-        <v>27606.9742401</v>
+        <v>166.15346592899999</v>
       </c>
       <c r="D51">
-        <v>220.57826238000001</v>
+        <v>14.8518774025</v>
       </c>
       <c r="E51">
-        <v>221.11721558599999</v>
+        <v>14.8700106115</v>
       </c>
       <c r="F51">
-        <v>846.80120450599998</v>
+        <v>29.099848874300001</v>
       </c>
       <c r="G51">
-        <v>219.60150891000001</v>
+        <v>14.818957753799999</v>
       </c>
       <c r="H51">
-        <v>221.83625086399999</v>
+        <v>14.894168350899999</v>
       </c>
       <c r="I51">
-        <v>217.05944286900001</v>
+        <v>14.7329373469</v>
       </c>
       <c r="J51">
-        <v>224.339885514</v>
+        <v>14.9779800212</v>
       </c>
       <c r="K51">
-        <v>219.51717739399999</v>
+        <v>14.816112087700001</v>
       </c>
       <c r="L51">
-        <v>224.92725537999999</v>
+        <v>14.9975749833</v>
       </c>
       <c r="M51">
-        <v>215.33805615899999</v>
+        <v>14.6744013901</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -8583,40 +7980,40 @@
         <v>37</v>
       </c>
       <c r="B52">
-        <v>504512.72957299999</v>
+        <v>710.29059515999995</v>
       </c>
       <c r="C52">
-        <v>8826.1615417400008</v>
+        <v>93.9476531997</v>
       </c>
       <c r="D52">
-        <v>125.548148157</v>
+        <v>11.2048270025</v>
       </c>
       <c r="E52">
-        <v>216.687357682</v>
+        <v>14.720304265899999</v>
       </c>
       <c r="F52">
-        <v>217.189425481</v>
+        <v>14.737347979899999</v>
       </c>
       <c r="G52">
-        <v>219.57237380999999</v>
+        <v>14.817974686499999</v>
       </c>
       <c r="H52">
-        <v>193.63694401199999</v>
+        <v>13.9153492235</v>
       </c>
       <c r="I52">
-        <v>207.76385562499999</v>
+        <v>14.414015943700001</v>
       </c>
       <c r="J52">
-        <v>218.72173223199999</v>
+        <v>14.7892438019</v>
       </c>
       <c r="K52">
-        <v>221.81134567800001</v>
+        <v>14.893332255700001</v>
       </c>
       <c r="L52">
-        <v>214.92885718100001</v>
+        <v>14.660452147899999</v>
       </c>
       <c r="M52">
-        <v>418.57382839299999</v>
+        <v>20.459076919400001</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -8624,40 +8021,40 @@
         <v>38</v>
       </c>
       <c r="B53">
-        <v>381138.28583100002</v>
+        <v>617.36398164399998</v>
       </c>
       <c r="C53">
-        <v>151.37270889000001</v>
+        <v>12.303361690599999</v>
       </c>
       <c r="D53">
-        <v>1852.28464035</v>
+        <v>43.038176545399999</v>
       </c>
       <c r="E53">
-        <v>811.48230883500003</v>
+        <v>28.486528550100001</v>
       </c>
       <c r="F53">
-        <v>155.208897603</v>
+        <v>12.458286302799999</v>
       </c>
       <c r="G53">
-        <v>229.278666437</v>
+        <v>15.141950549300001</v>
       </c>
       <c r="H53">
-        <v>218.83857680599999</v>
+        <v>14.7931935973</v>
       </c>
       <c r="I53">
-        <v>222.305031087</v>
+        <v>14.909897085100001</v>
       </c>
       <c r="J53">
-        <v>211.86726407399999</v>
+        <v>14.555660894400001</v>
       </c>
       <c r="K53">
-        <v>224.83587310499999</v>
+        <v>14.994528105400001</v>
       </c>
       <c r="L53">
-        <v>218.57838190199999</v>
+        <v>14.7843965687</v>
       </c>
       <c r="M53">
-        <v>225.076088906</v>
+        <v>15.002536082500001</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -8665,40 +8062,40 @@
         <v>39</v>
       </c>
       <c r="B54">
-        <v>177533.822881</v>
+        <v>421.34762712200001</v>
       </c>
       <c r="C54">
-        <v>13390.6159556</v>
+        <v>115.71782903099999</v>
       </c>
       <c r="D54">
-        <v>51806.480343800002</v>
+        <v>227.610369588</v>
       </c>
       <c r="E54">
-        <v>149.367312379</v>
+        <v>12.2215920558</v>
       </c>
       <c r="F54">
-        <v>221.60101924599999</v>
+        <v>14.8862694872</v>
       </c>
       <c r="G54">
-        <v>220.567576546</v>
+        <v>14.8515176513</v>
       </c>
       <c r="H54">
-        <v>223.5505225</v>
+        <v>14.9516060174</v>
       </c>
       <c r="I54">
-        <v>241.40441790200001</v>
+        <v>15.537194660000001</v>
       </c>
       <c r="J54">
-        <v>222.11286776399999</v>
+        <v>14.903451538600001</v>
       </c>
       <c r="K54">
-        <v>220.118591649</v>
+        <v>14.836394159299999</v>
       </c>
       <c r="L54">
-        <v>222.01979072899999</v>
+        <v>14.900328544300001</v>
       </c>
       <c r="M54">
-        <v>346.07210106600002</v>
+        <v>18.603013225400002</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -8706,40 +8103,40 @@
         <v>40</v>
       </c>
       <c r="B55">
-        <v>480281.64986200002</v>
+        <v>693.02355649900005</v>
       </c>
       <c r="C55">
-        <v>1861.50192928</v>
+        <v>43.1451263676</v>
       </c>
       <c r="D55">
-        <v>205.01624311399999</v>
+        <v>14.318388286199999</v>
       </c>
       <c r="E55">
-        <v>217.24585331399999</v>
+        <v>14.739262305600001</v>
       </c>
       <c r="F55">
-        <v>222.61585607999999</v>
+        <v>14.9203168894</v>
       </c>
       <c r="G55">
-        <v>408.726238438</v>
+        <v>20.216978964199999</v>
       </c>
       <c r="H55">
-        <v>217.27509367299999</v>
+        <v>14.740254193</v>
       </c>
       <c r="I55">
-        <v>225.17035048400001</v>
+        <v>15.0056772751</v>
       </c>
       <c r="J55">
-        <v>222.62742972000001</v>
+        <v>14.920704732700001</v>
       </c>
       <c r="K55">
-        <v>431.57096350299997</v>
+        <v>20.774286112999999</v>
       </c>
       <c r="L55">
-        <v>2174.2518273999999</v>
+        <v>46.628873323299999</v>
       </c>
       <c r="M55">
-        <v>223.922729847</v>
+        <v>14.9640479098</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -8747,40 +8144,40 @@
         <v>41</v>
       </c>
       <c r="B56">
-        <v>7688.0194411800003</v>
+        <v>87.681351729900001</v>
       </c>
       <c r="C56">
-        <v>3227.4424146900001</v>
+        <v>56.810583650300003</v>
       </c>
       <c r="D56">
-        <v>149.70891632600001</v>
+        <v>12.235559501999999</v>
       </c>
       <c r="E56">
-        <v>213.71348152300001</v>
+        <v>14.618942558300001</v>
       </c>
       <c r="F56">
-        <v>211.44981194600001</v>
+        <v>14.541313969000001</v>
       </c>
       <c r="G56">
-        <v>204.54706976899999</v>
+        <v>14.3019953073</v>
       </c>
       <c r="H56">
-        <v>322.934206082</v>
+        <v>17.9703702266</v>
       </c>
       <c r="I56">
-        <v>219.76389124599999</v>
+        <v>14.8244356131</v>
       </c>
       <c r="J56">
-        <v>219.972455314</v>
+        <v>14.831468414</v>
       </c>
       <c r="K56">
-        <v>218.871364836</v>
+        <v>14.7943017691</v>
       </c>
       <c r="L56">
-        <v>225.16498494499999</v>
+        <v>15.005498490400001</v>
       </c>
       <c r="M56">
-        <v>222.96178444700001</v>
+        <v>14.931904916900001</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -8788,40 +8185,40 @@
         <v>42</v>
       </c>
       <c r="B57">
-        <v>241.19093847799999</v>
+        <v>15.530323192999999</v>
       </c>
       <c r="C57">
-        <v>138.06170843300001</v>
+        <v>11.7499663162</v>
       </c>
       <c r="D57">
-        <v>151.764841265</v>
+        <v>12.319287368399999</v>
       </c>
       <c r="E57">
-        <v>204.36634853800001</v>
+        <v>14.2956758685</v>
       </c>
       <c r="F57">
-        <v>225.16191909299999</v>
+        <v>15.0053963324</v>
       </c>
       <c r="G57">
-        <v>216.09226136000001</v>
+        <v>14.700076916800001</v>
       </c>
       <c r="H57">
-        <v>219.40389033400001</v>
+        <v>14.8122884908</v>
       </c>
       <c r="I57">
-        <v>223.78444744999999</v>
+        <v>14.959426708600001</v>
       </c>
       <c r="J57">
-        <v>216.79281970599999</v>
+        <v>14.723886026000001</v>
       </c>
       <c r="K57">
-        <v>4880.93415671</v>
+        <v>69.863682673499994</v>
       </c>
       <c r="L57">
-        <v>693.09616798599995</v>
+        <v>26.3267196587</v>
       </c>
       <c r="M57">
-        <v>221.274716407</v>
+        <v>14.8753055904</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -8829,40 +8226,40 @@
         <v>43</v>
       </c>
       <c r="B58">
-        <v>17939.762821200002</v>
+        <v>133.93939980900001</v>
       </c>
       <c r="C58">
-        <v>232.23863531200001</v>
+        <v>15.2393777862</v>
       </c>
       <c r="D58">
-        <v>36388.8777883</v>
+        <v>190.75868994199999</v>
       </c>
       <c r="E58">
-        <v>221.32717283100001</v>
+        <v>14.8770686908</v>
       </c>
       <c r="F58">
-        <v>225.16179353499999</v>
+        <v>15.0053921487</v>
       </c>
       <c r="G58">
-        <v>176.691229787</v>
+        <v>13.292525335200001</v>
       </c>
       <c r="H58">
-        <v>224.78371666699999</v>
+        <v>14.9927888222</v>
       </c>
       <c r="I58">
-        <v>209.85107627100001</v>
+        <v>14.4862374781</v>
       </c>
       <c r="J58">
-        <v>216.71520005400001</v>
+        <v>14.721249948800001</v>
       </c>
       <c r="K58">
-        <v>213.02621781799999</v>
+        <v>14.5954176993</v>
       </c>
       <c r="L58">
-        <v>225.13817818999999</v>
+        <v>15.004605232699999</v>
       </c>
       <c r="M58">
-        <v>209.17979998800001</v>
+        <v>14.4630494706</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -8870,40 +8267,40 @@
         <v>44</v>
       </c>
       <c r="B59">
-        <v>497381.58592400001</v>
+        <v>705.25285247500005</v>
       </c>
       <c r="C59">
-        <v>209.85220194999999</v>
+        <v>14.486276331399999</v>
       </c>
       <c r="D59">
-        <v>178.341898429</v>
+        <v>13.3544711026</v>
       </c>
       <c r="E59">
-        <v>222.435993142</v>
+        <v>14.9142882211</v>
       </c>
       <c r="F59">
-        <v>210.355277543</v>
+        <v>14.503629805799999</v>
       </c>
       <c r="G59">
-        <v>220.96744878199999</v>
+        <v>14.8649738911</v>
       </c>
       <c r="H59">
-        <v>225.065148134</v>
+        <v>15.0021714473</v>
       </c>
       <c r="I59">
-        <v>226.63940340900001</v>
+        <v>15.054547598899999</v>
       </c>
       <c r="J59">
-        <v>220.44412786999999</v>
+        <v>14.847360973300001</v>
       </c>
       <c r="K59">
-        <v>222.70712269500001</v>
+        <v>14.9233750437</v>
       </c>
       <c r="L59">
-        <v>538.45254163799996</v>
+        <v>23.204580186600001</v>
       </c>
       <c r="M59">
-        <v>224.135669243</v>
+        <v>14.9711612523</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -8911,40 +8308,40 @@
         <v>45</v>
       </c>
       <c r="B60">
-        <v>62770.584128000002</v>
+        <v>250.54058379400001</v>
       </c>
       <c r="C60">
-        <v>51460.069185300003</v>
+        <v>226.84811920199999</v>
       </c>
       <c r="D60">
-        <v>273.36847043300003</v>
+        <v>16.533858304500001</v>
       </c>
       <c r="E60">
-        <v>665.86578173800001</v>
+        <v>25.804375244100001</v>
       </c>
       <c r="F60">
-        <v>226.125771004</v>
+        <v>15.0374788779</v>
       </c>
       <c r="G60">
-        <v>220.10001124600001</v>
+        <v>14.835767969500001</v>
       </c>
       <c r="H60">
-        <v>220.79293555199999</v>
+        <v>14.859102784199999</v>
       </c>
       <c r="I60">
-        <v>221.840941824</v>
+        <v>14.894325826399999</v>
       </c>
       <c r="J60">
-        <v>219.79292224899999</v>
+        <v>14.825414741199999</v>
       </c>
       <c r="K60">
-        <v>223.860249431</v>
+        <v>14.961960079800001</v>
       </c>
       <c r="L60">
-        <v>225.494264848</v>
+        <v>15.0164664568</v>
       </c>
       <c r="M60">
-        <v>225.09208884200001</v>
+        <v>15.003069313999999</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -8952,40 +8349,40 @@
         <v>46</v>
       </c>
       <c r="B61">
-        <v>8172.59594216</v>
+        <v>90.402411152400006</v>
       </c>
       <c r="C61">
-        <v>28296.641022899999</v>
+        <v>168.216054593</v>
       </c>
       <c r="D61">
-        <v>168.59733609099999</v>
+        <v>12.9845036906</v>
       </c>
       <c r="E61">
-        <v>249.387007627</v>
+        <v>15.7919918828</v>
       </c>
       <c r="F61">
-        <v>219.40331077299999</v>
+        <v>14.8122689272</v>
       </c>
       <c r="G61">
-        <v>217.45268753799999</v>
+        <v>14.7462770738</v>
       </c>
       <c r="H61">
-        <v>220.369895977</v>
+        <v>14.844860928199999</v>
       </c>
       <c r="I61">
-        <v>215.97154541</v>
+        <v>14.69597038</v>
       </c>
       <c r="J61">
-        <v>252.151825285</v>
+        <v>15.8792891933</v>
       </c>
       <c r="K61">
-        <v>209.520277255</v>
+        <v>14.474815275299999</v>
       </c>
       <c r="L61">
-        <v>305.138017123</v>
+        <v>17.468200168399999</v>
       </c>
       <c r="M61">
-        <v>221.32539790999999</v>
+        <v>14.877009037800001</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -8993,40 +8390,40 @@
         <v>47</v>
       </c>
       <c r="B62">
-        <v>9966.4876895399993</v>
+        <v>99.832297827600001</v>
       </c>
       <c r="C62">
-        <v>157.74145997700001</v>
+        <v>12.5595167095</v>
       </c>
       <c r="D62">
-        <v>218.01595891900001</v>
+        <v>14.7653634875</v>
       </c>
       <c r="E62">
-        <v>208.49557459799999</v>
+        <v>14.4393758382</v>
       </c>
       <c r="F62">
-        <v>217.81177669799999</v>
+        <v>14.7584476385</v>
       </c>
       <c r="G62">
-        <v>229.04100878099999</v>
+        <v>15.134100858</v>
       </c>
       <c r="H62">
-        <v>220.365155109</v>
+        <v>14.8447012469</v>
       </c>
       <c r="I62">
-        <v>219.34708233399999</v>
+        <v>14.8103707696</v>
       </c>
       <c r="J62">
-        <v>251.50004451199999</v>
+        <v>15.8587529305</v>
       </c>
       <c r="K62">
-        <v>221.378566683</v>
+        <v>14.8787958748</v>
       </c>
       <c r="L62">
-        <v>257.81812056299998</v>
+        <v>16.0567157465</v>
       </c>
       <c r="M62">
-        <v>272.81121667100001</v>
+        <v>16.516997810500001</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -9034,40 +8431,40 @@
         <v>48</v>
       </c>
       <c r="B63">
-        <v>117310.410196</v>
+        <v>342.50607322500002</v>
       </c>
       <c r="C63">
-        <v>3223.0885290699998</v>
+        <v>56.772251400400002</v>
       </c>
       <c r="D63">
-        <v>383.084887192</v>
+        <v>19.572554437099999</v>
       </c>
       <c r="E63">
-        <v>398.08696970699998</v>
+        <v>19.9521169229</v>
       </c>
       <c r="F63">
-        <v>239.04629121799999</v>
+        <v>15.461121926200001</v>
       </c>
       <c r="G63">
-        <v>219.96766927600001</v>
+        <v>14.831307065700001</v>
       </c>
       <c r="H63">
-        <v>222.41085561899999</v>
+        <v>14.913445464400001</v>
       </c>
       <c r="I63">
-        <v>220.53268835099999</v>
+        <v>14.8503430382</v>
       </c>
       <c r="J63">
-        <v>221.00566450900001</v>
+        <v>14.8662592642</v>
       </c>
       <c r="K63">
-        <v>224.594788475</v>
+        <v>14.9864868623</v>
       </c>
       <c r="L63">
-        <v>225.16233602599999</v>
+        <v>15.0054102252</v>
       </c>
       <c r="M63">
-        <v>228.363680585</v>
+        <v>15.111706739600001</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -9075,40 +8472,40 @@
         <v>49</v>
       </c>
       <c r="B64">
-        <v>433368.45924</v>
+        <v>658.30726810500005</v>
       </c>
       <c r="C64">
-        <v>220.49988542599999</v>
+        <v>14.849238547000001</v>
       </c>
       <c r="D64">
-        <v>263.27098823099999</v>
+        <v>16.225627514199999</v>
       </c>
       <c r="E64">
-        <v>422.06268552099999</v>
+        <v>20.544164269199999</v>
       </c>
       <c r="F64">
-        <v>203.55678578600001</v>
+        <v>14.2673328196</v>
       </c>
       <c r="G64">
-        <v>224.78067054499999</v>
+        <v>14.9926872356</v>
       </c>
       <c r="H64">
-        <v>225.09036832800001</v>
+        <v>15.0030119752</v>
       </c>
       <c r="I64">
-        <v>218.89411361500001</v>
+        <v>14.795070584999999</v>
       </c>
       <c r="J64">
-        <v>306.81029868899998</v>
+        <v>17.5160012186</v>
       </c>
       <c r="K64">
-        <v>227.32175429099999</v>
+        <v>15.0771931834</v>
       </c>
       <c r="L64">
-        <v>214.44372633500001</v>
+        <v>14.643897238599999</v>
       </c>
       <c r="M64">
-        <v>258.54827449700002</v>
+        <v>16.079436386200001</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -9116,40 +8513,40 @@
         <v>50</v>
       </c>
       <c r="B65">
-        <v>382564.43184899999</v>
+        <v>618.51793171199995</v>
       </c>
       <c r="C65">
-        <v>3085.8998043500001</v>
+        <v>55.550875819799998</v>
       </c>
       <c r="D65">
-        <v>166505.11206799999</v>
+        <v>408.05037932599998</v>
       </c>
       <c r="E65">
-        <v>207.56556601700001</v>
+        <v>14.4071359408</v>
       </c>
       <c r="F65">
-        <v>221.35955580800001</v>
+        <v>14.8781570031</v>
       </c>
       <c r="G65">
-        <v>220.129146206</v>
+        <v>14.836749853200001</v>
       </c>
       <c r="H65">
-        <v>221.55355546999999</v>
+        <v>14.884675188599999</v>
       </c>
       <c r="I65">
-        <v>220.50176918299999</v>
+        <v>14.8493019763</v>
       </c>
       <c r="J65">
-        <v>211.84049190600001</v>
+        <v>14.5547412174</v>
       </c>
       <c r="K65">
-        <v>231.92135120699999</v>
+        <v>15.2289642198</v>
       </c>
       <c r="L65">
-        <v>241.42165099100001</v>
+        <v>15.537749225400001</v>
       </c>
       <c r="M65">
-        <v>257.90664405500002</v>
+        <v>16.0594720976</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -9158,104 +8555,104 @@
       </c>
       <c r="B66">
         <f>AVERAGE(B16:B65)</f>
-        <v>164015.97383080111</v>
+        <v>321.26200299460203</v>
       </c>
       <c r="C66">
         <f t="shared" ref="C66:M66" si="0">AVERAGE(C16:C65)</f>
-        <v>10988.146533713842</v>
+        <v>68.131472266775987</v>
       </c>
       <c r="D66">
         <f t="shared" si="0"/>
-        <v>18638.27176552116</v>
+        <v>77.549941559147996</v>
       </c>
       <c r="E66">
         <f>AVERAGE(E16:E65)</f>
-        <v>254.03271642197996</v>
+        <v>15.689584739236002</v>
       </c>
       <c r="F66">
         <f t="shared" si="0"/>
-        <v>297.20623199373995</v>
+        <v>16.241191076184002</v>
       </c>
       <c r="G66">
         <f t="shared" si="0"/>
-        <v>1135.70132235756</v>
+        <v>18.909691446478</v>
       </c>
       <c r="H66">
         <f t="shared" si="0"/>
-        <v>270.10722752449999</v>
+        <v>15.851980132564002</v>
       </c>
       <c r="I66">
         <f t="shared" si="0"/>
-        <v>330.09898785028008</v>
+        <v>16.396548160161995</v>
       </c>
       <c r="J66">
         <f t="shared" si="0"/>
-        <v>236.05571260172005</v>
+        <v>15.311345533690004</v>
       </c>
       <c r="K66">
         <f t="shared" si="0"/>
-        <v>326.95068525323995</v>
+        <v>16.336729551662003</v>
       </c>
       <c r="L66">
         <f t="shared" si="0"/>
-        <v>299.31574331463997</v>
+        <v>16.443857716859998</v>
       </c>
       <c r="M66">
         <f t="shared" si="0"/>
-        <v>250.66015671818002</v>
+        <v>15.596003031377997</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B67">
-        <f>_xlfn.STDEV.P(B16:B66)</f>
-        <v>173872.87507348877</v>
+        <f>_xlfn.STDEV.P(B16:B66)/SQRT(50)</f>
+        <v>34.529526797183287</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:M67" si="1">_xlfn.STDEV.P(C16:C66)</f>
-        <v>23061.178940597871</v>
+        <f t="shared" ref="C67:M67" si="1">_xlfn.STDEV.P(C16:C66)/SQRT(50)</f>
+        <v>11.155099968343398</v>
       </c>
       <c r="D67">
         <f t="shared" si="1"/>
-        <v>46114.838872098626</v>
+        <v>15.733240899765239</v>
       </c>
       <c r="E67">
         <f t="shared" si="1"/>
-        <v>111.28824755644078</v>
+        <v>0.39281905059547734</v>
       </c>
       <c r="F67">
         <f t="shared" si="1"/>
-        <v>343.45161273350516</v>
+        <v>0.80962281729448027</v>
       </c>
       <c r="G67">
         <f t="shared" si="1"/>
-        <v>6321.1832827046064</v>
+        <v>3.9060659004702289</v>
       </c>
       <c r="H67">
         <f t="shared" si="1"/>
-        <v>242.49172829908599</v>
+        <v>0.60750136611563721</v>
       </c>
       <c r="I67">
         <f t="shared" si="1"/>
-        <v>654.97821268037876</v>
+        <v>1.0959121572976103</v>
       </c>
       <c r="J67">
         <f t="shared" si="1"/>
-        <v>43.024588399124241</v>
+        <v>0.17813910348492223</v>
       </c>
       <c r="K67">
         <f t="shared" si="1"/>
-        <v>645.696082398562</v>
+        <v>1.0852121217500739</v>
       </c>
       <c r="L67">
         <f t="shared" si="1"/>
-        <v>302.04362579034085</v>
+        <v>0.75297171655025064</v>
       </c>
       <c r="M67">
         <f t="shared" si="1"/>
-        <v>124.2858822957469</v>
+        <v>0.38155631155958419</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -9298,691 +8695,691 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70">
         <f>SMALL(B16:B65,COUNTIF(B16:B65,"&lt;"&amp;B75)+1)</f>
-        <v>130.724800147</v>
+        <v>11.433494660299999</v>
       </c>
       <c r="C70">
         <f t="shared" ref="C70:M70" si="2">SMALL(C16:C65,COUNTIF(C16:C65,"&lt;"&amp;C75)+1)</f>
-        <v>102.742225086</v>
+        <v>10.1361839509</v>
       </c>
       <c r="D70">
         <f t="shared" si="2"/>
-        <v>119.811073674</v>
+        <v>10.945824485799999</v>
       </c>
       <c r="E70">
         <f t="shared" si="2"/>
-        <v>193.82306631700001</v>
+        <v>13.922035279299999</v>
       </c>
       <c r="F70">
         <f t="shared" si="2"/>
-        <v>203.55678578600001</v>
+        <v>14.2673328196</v>
       </c>
       <c r="G70">
         <f t="shared" si="2"/>
-        <v>212.84021252299999</v>
+        <v>14.5890442635</v>
       </c>
       <c r="H70">
         <f t="shared" si="2"/>
-        <v>209.35257706900001</v>
+        <v>14.469021289300001</v>
       </c>
       <c r="I70">
         <f t="shared" si="2"/>
-        <v>206.415862339</v>
+        <v>14.367180041299999</v>
       </c>
       <c r="J70">
         <f t="shared" si="2"/>
-        <v>207.343995654</v>
+        <v>14.399444282799999</v>
       </c>
       <c r="K70">
         <f t="shared" si="2"/>
-        <v>210.690118415</v>
+        <v>14.5151685631</v>
       </c>
       <c r="L70">
         <f t="shared" si="2"/>
-        <v>202.85325345800001</v>
+        <v>14.2426561237</v>
       </c>
       <c r="M70">
         <f t="shared" si="2"/>
-        <v>210.39271150799999</v>
+        <v>14.5049202517</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B71">
         <f>QUARTILE(B16:B65,1)</f>
-        <v>7809.1635664250007</v>
+        <v>88.361616585524999</v>
       </c>
       <c r="C71">
         <f t="shared" ref="C71:M71" si="3">QUARTILE(C16:C65,1)</f>
-        <v>191.46646703725</v>
+        <v>13.837119441900001</v>
       </c>
       <c r="D71">
         <f t="shared" si="3"/>
-        <v>185.01048460024998</v>
+        <v>13.595450398499999</v>
       </c>
       <c r="E71">
         <f t="shared" si="3"/>
-        <v>209.74434684874998</v>
+        <v>14.482415694349999</v>
       </c>
       <c r="F71">
         <f t="shared" si="3"/>
-        <v>214.68222543749999</v>
+        <v>14.652037999925</v>
       </c>
       <c r="G71">
         <f t="shared" si="3"/>
-        <v>218.11551053699998</v>
+        <v>14.768706829949998</v>
       </c>
       <c r="H71">
         <f t="shared" si="3"/>
-        <v>217.66596445624998</v>
+        <v>14.753489044075</v>
       </c>
       <c r="I71">
         <f t="shared" si="3"/>
-        <v>217.13914877975</v>
+        <v>14.73564137875</v>
       </c>
       <c r="J71">
         <f t="shared" si="3"/>
-        <v>218.824589801</v>
+        <v>14.792720324725</v>
       </c>
       <c r="K71">
         <f t="shared" si="3"/>
-        <v>219.98077762275</v>
+        <v>14.831748731374999</v>
       </c>
       <c r="L71">
         <f t="shared" si="3"/>
-        <v>218.43022230075002</v>
+        <v>14.779384761500001</v>
       </c>
       <c r="M71">
         <f t="shared" si="3"/>
-        <v>219.39458736875</v>
+        <v>14.81197443265</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B72">
         <f>MEDIAN(B16:B65)</f>
-        <v>100144.59965640001</v>
+        <v>316.39952826050001</v>
       </c>
       <c r="C72">
         <f t="shared" ref="C72:M72" si="4">MEDIAN(C16:C65)</f>
-        <v>697.45374546049993</v>
+        <v>26.389408550399999</v>
       </c>
       <c r="D72">
         <f t="shared" si="4"/>
-        <v>268.31972933200001</v>
+        <v>16.37974290935</v>
       </c>
       <c r="E72">
         <f t="shared" si="4"/>
-        <v>220.93821200549999</v>
+        <v>14.86398922725</v>
       </c>
       <c r="F72">
         <f t="shared" si="4"/>
-        <v>221.480287527</v>
+        <v>14.88221324515</v>
       </c>
       <c r="G72">
         <f t="shared" si="4"/>
-        <v>220.95216312650001</v>
+        <v>14.8644597232</v>
       </c>
       <c r="H72">
         <f t="shared" si="4"/>
-        <v>221.1818905385</v>
+        <v>14.87217988075</v>
       </c>
       <c r="I72">
         <f t="shared" si="4"/>
-        <v>220.90296665900001</v>
+        <v>14.8628045065</v>
       </c>
       <c r="J72">
         <f t="shared" si="4"/>
-        <v>221.553218638</v>
+        <v>14.88466352765</v>
       </c>
       <c r="K72">
         <f t="shared" si="4"/>
-        <v>222.31927550500001</v>
+        <v>14.910374758850001</v>
       </c>
       <c r="L72">
         <f t="shared" si="4"/>
-        <v>224.39006975949999</v>
+        <v>14.9796444636</v>
       </c>
       <c r="M72">
         <f t="shared" si="4"/>
-        <v>222.54292697900001</v>
+        <v>14.9178727007</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B73">
         <f>QUARTILE(B16:B65,3)</f>
-        <v>315941.74681975</v>
+        <v>562.00446964524997</v>
       </c>
       <c r="C73">
         <f t="shared" ref="C73:M73" si="5">QUARTILE(C16:C65,3)</f>
-        <v>8622.483131465</v>
+        <v>92.837412882824992</v>
       </c>
       <c r="D73">
         <f t="shared" si="5"/>
-        <v>5314.5203119799999</v>
+        <v>72.858689564274997</v>
       </c>
       <c r="E73">
         <f t="shared" si="5"/>
-        <v>227.75160196224999</v>
+        <v>15.09135973755</v>
       </c>
       <c r="F73">
         <f t="shared" si="5"/>
-        <v>225.16188770349999</v>
+        <v>15.005395286475</v>
       </c>
       <c r="G73">
         <f t="shared" si="5"/>
-        <v>224.59299753274999</v>
+        <v>14.986423182899999</v>
       </c>
       <c r="H73">
         <f t="shared" si="5"/>
-        <v>225.15423090525002</v>
+        <v>15.005140149224999</v>
       </c>
       <c r="I73">
         <f t="shared" si="5"/>
-        <v>225.16202416175003</v>
+        <v>15.005399825775001</v>
       </c>
       <c r="J73">
         <f t="shared" si="5"/>
-        <v>227.69674502825001</v>
+        <v>15.08962359745</v>
       </c>
       <c r="K73">
         <f t="shared" si="5"/>
-        <v>226.4351719595</v>
+        <v>15.04774313075</v>
       </c>
       <c r="L73">
         <f t="shared" si="5"/>
-        <v>234.2220755095</v>
+        <v>15.304306040525001</v>
       </c>
       <c r="M73">
         <f t="shared" si="5"/>
-        <v>225.80022668700002</v>
+        <v>15.026650091400001</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B74">
         <f>LARGE(B16:B65,COUNTIF(B16:B65,"&gt;"&amp;B77)+1)</f>
-        <v>506463.60804700002</v>
+        <v>711.66256614099996</v>
       </c>
       <c r="C74">
         <f t="shared" ref="C74:M74" si="6">LARGE(C16:C65,COUNTIF(C16:C65,"&gt;"&amp;C77)+1)</f>
-        <v>17563.183664100001</v>
+        <v>195.929437971</v>
       </c>
       <c r="D74">
         <f t="shared" si="6"/>
-        <v>12942.0762708</v>
+        <v>139.82134850400001</v>
       </c>
       <c r="E74">
         <f t="shared" si="6"/>
-        <v>250.32542526399999</v>
+        <v>15.8216758045</v>
       </c>
       <c r="F74">
         <f t="shared" si="6"/>
-        <v>239.04629121799999</v>
+        <v>15.461121926200001</v>
       </c>
       <c r="G74">
         <f t="shared" si="6"/>
-        <v>229.278666437</v>
+        <v>15.141950549300001</v>
       </c>
       <c r="H74">
         <f t="shared" si="6"/>
-        <v>235.81283551600001</v>
+        <v>15.356198602399999</v>
       </c>
       <c r="I74">
         <f t="shared" si="6"/>
-        <v>232.41064642500001</v>
+        <v>15.2450203813</v>
       </c>
       <c r="J74">
         <f t="shared" si="6"/>
-        <v>240.59839571399999</v>
+        <v>15.5112345</v>
       </c>
       <c r="K74">
         <f t="shared" si="6"/>
-        <v>231.92135120699999</v>
+        <v>15.2289642198</v>
       </c>
       <c r="L74">
         <f t="shared" si="6"/>
-        <v>257.81812056299998</v>
+        <v>16.0567157465</v>
       </c>
       <c r="M74">
         <f t="shared" si="6"/>
-        <v>228.363680585</v>
+        <v>15.111706739600001</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B75">
         <f>B71-(1.5*B76)</f>
-        <v>-454389.71131356258</v>
+        <v>-622.10266300406249</v>
       </c>
       <c r="C75">
         <f t="shared" ref="C75:M75" si="7">C71-(1.5*C76)</f>
-        <v>-12455.058529604377</v>
+        <v>-104.66332071948749</v>
       </c>
       <c r="D75">
         <f t="shared" si="7"/>
-        <v>-7509.2542564693758</v>
+        <v>-75.299408350162508</v>
       </c>
       <c r="E75">
         <f t="shared" si="7"/>
-        <v>182.73346417849996</v>
+        <v>13.568999629549998</v>
       </c>
       <c r="F75">
         <f t="shared" si="7"/>
-        <v>198.96273203850001</v>
+        <v>14.122002070099999</v>
       </c>
       <c r="G75">
         <f t="shared" si="7"/>
-        <v>208.39928004337497</v>
+        <v>14.442132300524996</v>
       </c>
       <c r="H75">
         <f t="shared" si="7"/>
-        <v>206.43356478274993</v>
+        <v>14.37601238635</v>
       </c>
       <c r="I75">
         <f t="shared" si="7"/>
-        <v>205.10483570674995</v>
+        <v>14.331003708212497</v>
       </c>
       <c r="J75">
         <f t="shared" si="7"/>
-        <v>205.51635696012499</v>
+        <v>14.347365415637499</v>
       </c>
       <c r="K75">
         <f t="shared" si="7"/>
-        <v>210.299186117625</v>
+        <v>14.507757132312499</v>
       </c>
       <c r="L75">
         <f t="shared" si="7"/>
-        <v>194.74244248762506</v>
+        <v>13.992002842962503</v>
       </c>
       <c r="M75">
         <f t="shared" si="7"/>
-        <v>209.78612839137497</v>
+        <v>14.489960944525</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B76">
         <f>B73-B71</f>
-        <v>308132.58325332502</v>
+        <v>473.64285305972498</v>
       </c>
       <c r="C76">
         <f t="shared" ref="C76:M76" si="8">C73-C71</f>
-        <v>8431.0166644277506</v>
+        <v>79.000293440924992</v>
       </c>
       <c r="D76">
         <f t="shared" si="8"/>
-        <v>5129.5098273797503</v>
+        <v>59.263239165774998</v>
       </c>
       <c r="E76">
         <f t="shared" si="8"/>
-        <v>18.007255113500008</v>
+        <v>0.60894404320000106</v>
       </c>
       <c r="F76">
         <f t="shared" si="8"/>
-        <v>10.479662265999991</v>
+        <v>0.35335728655000054</v>
       </c>
       <c r="G76">
         <f t="shared" si="8"/>
-        <v>6.477486995750013</v>
+        <v>0.21771635295000102</v>
       </c>
       <c r="H76">
         <f t="shared" si="8"/>
-        <v>7.4882664490000366</v>
+        <v>0.25165110514999967</v>
       </c>
       <c r="I76">
         <f t="shared" si="8"/>
-        <v>8.0228753820000236</v>
+        <v>0.2697584470250014</v>
       </c>
       <c r="J76">
         <f t="shared" si="8"/>
-        <v>8.8721552272500048</v>
+        <v>0.29690327272500028</v>
       </c>
       <c r="K76">
         <f t="shared" si="8"/>
-        <v>6.4543943367499992</v>
+        <v>0.21599439937500087</v>
       </c>
       <c r="L76">
         <f t="shared" si="8"/>
-        <v>15.791853208749984</v>
+        <v>0.52492127902499952</v>
       </c>
       <c r="M76">
         <f t="shared" si="8"/>
-        <v>6.4056393182500244</v>
+        <v>0.21467565875000005</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B77">
         <f>B73+(1.5*B76)</f>
-        <v>778140.62169973762</v>
+        <v>1272.4687492348376</v>
       </c>
       <c r="C77">
         <f t="shared" ref="C77:M77" si="9">C73+(1.5*C76)</f>
-        <v>21269.008128106627</v>
+        <v>211.33785304421247</v>
       </c>
       <c r="D77">
         <f t="shared" si="9"/>
-        <v>13008.785053049625</v>
+        <v>161.75354831293748</v>
       </c>
       <c r="E77">
         <f t="shared" si="9"/>
-        <v>254.76248463249999</v>
+        <v>16.004775802350004</v>
       </c>
       <c r="F77">
         <f t="shared" si="9"/>
-        <v>240.88138110249997</v>
+        <v>15.535431216300001</v>
       </c>
       <c r="G77">
         <f t="shared" si="9"/>
-        <v>234.30922802637502</v>
+        <v>15.312997712325</v>
       </c>
       <c r="H77">
         <f t="shared" si="9"/>
-        <v>236.38663057875007</v>
+        <v>15.382616806949999</v>
       </c>
       <c r="I77">
         <f t="shared" si="9"/>
-        <v>237.19633723475005</v>
+        <v>15.410037496312503</v>
       </c>
       <c r="J77">
         <f t="shared" si="9"/>
-        <v>241.00497786912501</v>
+        <v>15.534978506537501</v>
       </c>
       <c r="K77">
         <f t="shared" si="9"/>
-        <v>236.116763464625</v>
+        <v>15.371734729812502</v>
       </c>
       <c r="L77">
         <f t="shared" si="9"/>
-        <v>257.90985532262499</v>
+        <v>16.091687959062501</v>
       </c>
       <c r="M77">
         <f t="shared" si="9"/>
-        <v>235.40868566437507</v>
+        <v>15.348663579525001</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B79">
         <f>B71-B70</f>
-        <v>7678.4387662780009</v>
+        <v>76.928121925225</v>
       </c>
       <c r="C79">
         <f t="shared" ref="C79:M79" si="10">C71-C70</f>
-        <v>88.724241951249994</v>
+        <v>3.700935491000001</v>
       </c>
       <c r="D79" s="2">
         <f t="shared" si="10"/>
-        <v>65.199410926249982</v>
+        <v>2.6496259126999995</v>
       </c>
       <c r="E79" s="2">
         <f t="shared" si="10"/>
-        <v>15.921280531749971</v>
+        <v>0.56038041505000002</v>
       </c>
       <c r="F79" s="2">
         <f t="shared" si="10"/>
-        <v>11.125439651499988</v>
+        <v>0.38470518032499967</v>
       </c>
       <c r="G79" s="2">
         <f t="shared" si="10"/>
-        <v>5.2752980139999863</v>
+        <v>0.17966256644999845</v>
       </c>
       <c r="H79" s="2">
         <f t="shared" si="10"/>
-        <v>8.3133873872499748</v>
+        <v>0.28446775477499919</v>
       </c>
       <c r="I79" s="2">
         <f t="shared" si="10"/>
-        <v>10.723286440750002</v>
+        <v>0.36846133745000031</v>
       </c>
       <c r="J79" s="2">
         <f t="shared" si="10"/>
-        <v>11.480594147000005</v>
+        <v>0.39327604192500054</v>
       </c>
       <c r="K79" s="2">
         <f t="shared" si="10"/>
-        <v>9.2906592077499965</v>
+        <v>0.31658016827499935</v>
       </c>
       <c r="L79" s="2">
         <f t="shared" si="10"/>
-        <v>15.576968842750006</v>
+        <v>0.53672863780000135</v>
       </c>
       <c r="M79" s="2">
         <f t="shared" si="10"/>
-        <v>9.0018758607500047</v>
+        <v>0.3070541809500007</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B80">
         <f>B71</f>
-        <v>7809.1635664250007</v>
+        <v>88.361616585524999</v>
       </c>
       <c r="C80">
         <f t="shared" ref="C80:M80" si="11">C71</f>
-        <v>191.46646703725</v>
+        <v>13.837119441900001</v>
       </c>
       <c r="D80" s="2">
         <f t="shared" si="11"/>
-        <v>185.01048460024998</v>
+        <v>13.595450398499999</v>
       </c>
       <c r="E80" s="2">
         <f t="shared" si="11"/>
-        <v>209.74434684874998</v>
+        <v>14.482415694349999</v>
       </c>
       <c r="F80" s="2">
         <f t="shared" si="11"/>
-        <v>214.68222543749999</v>
+        <v>14.652037999925</v>
       </c>
       <c r="G80" s="2">
         <f t="shared" si="11"/>
-        <v>218.11551053699998</v>
+        <v>14.768706829949998</v>
       </c>
       <c r="H80" s="2">
         <f t="shared" si="11"/>
-        <v>217.66596445624998</v>
+        <v>14.753489044075</v>
       </c>
       <c r="I80" s="2">
         <f t="shared" si="11"/>
-        <v>217.13914877975</v>
+        <v>14.73564137875</v>
       </c>
       <c r="J80" s="2">
         <f t="shared" si="11"/>
-        <v>218.824589801</v>
+        <v>14.792720324725</v>
       </c>
       <c r="K80" s="2">
         <f t="shared" si="11"/>
-        <v>219.98077762275</v>
+        <v>14.831748731374999</v>
       </c>
       <c r="L80" s="2">
         <f t="shared" si="11"/>
-        <v>218.43022230075002</v>
+        <v>14.779384761500001</v>
       </c>
       <c r="M80" s="2">
         <f t="shared" si="11"/>
-        <v>219.39458736875</v>
+        <v>14.81197443265</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B81">
         <f>B72-B71</f>
-        <v>92335.436089975003</v>
+        <v>228.03791167497502</v>
       </c>
       <c r="C81">
         <f t="shared" ref="C81:M83" si="12">C72-C71</f>
-        <v>505.9872784232499</v>
+        <v>12.552289108499998</v>
       </c>
       <c r="D81" s="2">
         <f t="shared" si="12"/>
-        <v>83.309244731750027</v>
+        <v>2.7842925108500012</v>
       </c>
       <c r="E81" s="2">
         <f t="shared" si="12"/>
-        <v>11.193865156750007</v>
+        <v>0.38157353290000096</v>
       </c>
       <c r="F81" s="2">
         <f t="shared" si="12"/>
-        <v>6.7980620895000072</v>
+        <v>0.23017524522500032</v>
       </c>
       <c r="G81" s="2">
         <f t="shared" si="12"/>
-        <v>2.8366525895000336</v>
+        <v>9.5752893250001136E-2</v>
       </c>
       <c r="H81" s="2">
         <f t="shared" si="12"/>
-        <v>3.5159260822500187</v>
+        <v>0.11869083667500036</v>
       </c>
       <c r="I81" s="2">
         <f t="shared" si="12"/>
-        <v>3.7638178792500128</v>
+        <v>0.12716312775000027</v>
       </c>
       <c r="J81" s="2">
         <f t="shared" si="12"/>
-        <v>2.7286288370000022</v>
+        <v>9.1943202925000023E-2</v>
       </c>
       <c r="K81" s="2">
         <f t="shared" si="12"/>
-        <v>2.3384978822500102</v>
+        <v>7.8626027475001692E-2</v>
       </c>
       <c r="L81" s="2">
         <f t="shared" si="12"/>
-        <v>5.9598474587499766</v>
+        <v>0.20025970209999855</v>
       </c>
       <c r="M81" s="2">
         <f t="shared" si="12"/>
-        <v>3.1483396102500194</v>
+        <v>0.1058982680499998</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B82">
         <f>B73-B72</f>
-        <v>215797.14716334999</v>
+        <v>245.60494138474996</v>
       </c>
       <c r="C82">
         <f t="shared" si="12"/>
-        <v>7925.0293860045003</v>
+        <v>66.448004332425</v>
       </c>
       <c r="D82" s="2">
         <f t="shared" si="12"/>
-        <v>5046.2005826479999</v>
+        <v>56.478946654924997</v>
       </c>
       <c r="E82" s="2">
         <f t="shared" si="12"/>
-        <v>6.8133899567500009</v>
+        <v>0.22737051030000011</v>
       </c>
       <c r="F82" s="2">
         <f t="shared" si="12"/>
-        <v>3.6816001764999839</v>
+        <v>0.12318204132500021</v>
       </c>
       <c r="G82" s="2">
         <f t="shared" si="12"/>
-        <v>3.6408344062499793</v>
+        <v>0.12196345969999989</v>
       </c>
       <c r="H82" s="2">
         <f t="shared" si="12"/>
-        <v>3.9723403667500179</v>
+        <v>0.13296026847499931</v>
       </c>
       <c r="I82" s="2">
         <f t="shared" si="12"/>
-        <v>4.2590575027500108</v>
+        <v>0.14259531927500113</v>
       </c>
       <c r="J82" s="2">
         <f t="shared" si="12"/>
-        <v>6.1435263902500026</v>
+        <v>0.20496006980000026</v>
       </c>
       <c r="K82" s="2">
         <f t="shared" si="12"/>
-        <v>4.115896454499989</v>
+        <v>0.13736837189999918</v>
       </c>
       <c r="L82" s="2">
         <f t="shared" si="12"/>
-        <v>9.8320057500000075</v>
+        <v>0.32466157692500097</v>
       </c>
       <c r="M82" s="2">
         <f t="shared" si="12"/>
-        <v>3.257299708000005</v>
+        <v>0.10877739070000025</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B83">
         <f>B74-B73</f>
-        <v>190521.86122725002</v>
+        <v>149.65809649574999</v>
       </c>
       <c r="C83">
         <f t="shared" si="12"/>
-        <v>8940.7005326350009</v>
+        <v>103.09202508817501</v>
       </c>
       <c r="D83" s="2">
         <f t="shared" si="12"/>
-        <v>7627.5559588200003</v>
+        <v>66.962658939725017</v>
       </c>
       <c r="E83" s="2">
         <f t="shared" si="12"/>
-        <v>22.573823301749997</v>
+        <v>0.73031606694999951</v>
       </c>
       <c r="F83" s="2">
         <f t="shared" si="12"/>
-        <v>13.884403514500008</v>
+        <v>0.45572663972500038</v>
       </c>
       <c r="G83" s="2">
         <f t="shared" si="12"/>
-        <v>4.6856689042500079</v>
+        <v>0.1555273664000012</v>
       </c>
       <c r="H83" s="2">
         <f t="shared" si="12"/>
-        <v>10.65860461074999</v>
+        <v>0.35105845317499984</v>
       </c>
       <c r="I83" s="2">
         <f t="shared" si="12"/>
-        <v>7.2486222632499846</v>
+        <v>0.23962055552499884</v>
       </c>
       <c r="J83" s="2">
         <f t="shared" si="12"/>
-        <v>12.901650685749985</v>
+        <v>0.42161090255000033</v>
       </c>
       <c r="K83" s="2">
         <f t="shared" si="12"/>
-        <v>5.4861792474999902</v>
+        <v>0.18122108905000012</v>
       </c>
       <c r="L83" s="2">
         <f t="shared" si="12"/>
-        <v>23.596045053499978</v>
+        <v>0.75240970597499945</v>
       </c>
       <c r="M83" s="2">
         <f t="shared" si="12"/>
-        <v>2.5634538979999775</v>
+        <v>8.505664820000014E-2</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
@@ -12240,7 +11637,7 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B53">
         <v>-420998.44129233126</v>
@@ -12281,7 +11678,7 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B54">
         <v>282195.5159718325</v>
@@ -12322,7 +11719,7 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B55">
         <v>707783.6225949988</v>
